--- a/data/hotels_by_city/Houston/Houston_shard_439.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_439.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="504">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1218737-Reviews-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-La-Quinta-Inn-Suites-Houston-East-At-Normandy.h2419642.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1396 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r597484842-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1218737</t>
+  </si>
+  <si>
+    <t>597484842</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>No Problems</t>
+  </si>
+  <si>
+    <t>Didn't have any issues with the room or the service. Nice room for the price. The hotel was exactly what we were looking for. Bathroom and Room were clean. There was even a working microwave and small refrigerator.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Management response:Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Didn't have any issues with the room or the service. Nice room for the price. The hotel was exactly what we were looking for. Bathroom and Room were clean. There was even a working microwave and small refrigerator.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r597304538-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>597304538</t>
+  </si>
+  <si>
+    <t>Excellent stay, if only....</t>
+  </si>
+  <si>
+    <t>Great experience! Just one thing....the white curtain in our room could not close causing continuous night and morning light from outside to shine in the room. Need darker curtain or different design that will allow curtains to close. Everything else was outstanding!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Great experience! Just one thing....the white curtain in our room could not close causing continuous night and morning light from outside to shine in the room. Need darker curtain or different design that will allow curtains to close. Everything else was outstanding!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r597512598-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>597512598</t>
+  </si>
+  <si>
+    <t>Family Vacation</t>
+  </si>
+  <si>
+    <t>We've never have had this type of bad experience during breakfast at a hotel before. Hotels usually have someone at the dinning area making sure the area is clean and that there is plenty of food and drinks out.MoreShow less</t>
+  </si>
+  <si>
+    <t>We've never have had this type of bad experience during breakfast at a hotel before. Hotels usually have someone at the dinning area making sure the area is clean and that there is plenty of food and drinks out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r583916827-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583916827</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Mini vacation</t>
+  </si>
+  <si>
+    <t>No pool an no queen beds other than that all was good. Would recommend hotel an would stay there again.great variety of breakfast items never ran out of any food. Staff very helpful an friendly.when needing something they responded quickly.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r572579967-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572579967</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>It was an excellent stay at the Hotel and we will defenitely stay again and will defwnitely recommend it! We will be traveling soon again and our choice is yoyr Hotel soon . It makes our trip much more easier and comfortable. Thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>It was an excellent stay at the Hotel and we will defenitely stay again and will defwnitely recommend it! We will be traveling soon again and our choice is yoyr Hotel soon . It makes our trip much more easier and comfortable. Thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r568732735-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568732735</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r534207022-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534207022</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>Dogs Barking and Whining all Night</t>
+  </si>
+  <si>
+    <t>I booked this hotel last minute because the reviews on the booking website were great. The hotel was clean and so were there rooms. Breakfast in the morning was average compared to other hotels of the the same class. I am on a gluten free diet and there was not not much to eat, but I always come prepared and pack breakfast food so I have something safe to eat. The sleep quality was horrible. There was a dog next door barking and whining all night. I did not get much sleep because I was stuffy all night due to the animal dander in the room I was staying in. I think it is great that a hotel allows people to stay with their pets, but they should keep them on different floors and have pet only rooms to keep those allergic from being affected.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care at La Quinta Inn &amp; Suites Houston East at Normandy, responded to this reviewResponded October 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2017</t>
+  </si>
+  <si>
+    <t>I booked this hotel last minute because the reviews on the booking website were great. The hotel was clean and so were there rooms. Breakfast in the morning was average compared to other hotels of the the same class. I am on a gluten free diet and there was not not much to eat, but I always come prepared and pack breakfast food so I have something safe to eat. The sleep quality was horrible. There was a dog next door barking and whining all night. I did not get much sleep because I was stuffy all night due to the animal dander in the room I was staying in. I think it is great that a hotel allows people to stay with their pets, but they should keep them on different floors and have pet only rooms to keep those allergic from being affected.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r526601341-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>526601341</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>Dogs and Ignorance!!</t>
+  </si>
+  <si>
+    <t>Love animals, I have dogs.  But at least one floor should not have pets.  Barking in early mornings and at night.  Pillows are too old and hard.  I had to go get a blanket because housekeeping apparently skipped my room when it was time for checkin.  Right in front of the ac was someones shoe insole.  Hard not miss if you vacuum over there.  Front desk staff is clueless when you ask them anything.  Front desk clerk had her dog there and it actually jumped over the counter when I told her drink machine took my money.  They are always on their phone when I come in.  Just so unprofessional.  I have stayed at alot of hotels and have never seen this lack of professionalism. When I complained about the noise fron the dogs, I was told its a pet friendly hotel.  So not people friendly? One floor should be designates to people without animals.   If their was somewhere else to stay I would go in a heartbeat.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Love animals, I have dogs.  But at least one floor should not have pets.  Barking in early mornings and at night.  Pillows are too old and hard.  I had to go get a blanket because housekeeping apparently skipped my room when it was time for checkin.  Right in front of the ac was someones shoe insole.  Hard not miss if you vacuum over there.  Front desk staff is clueless when you ask them anything.  Front desk clerk had her dog there and it actually jumped over the counter when I told her drink machine took my money.  They are always on their phone when I come in.  Just so unprofessional.  I have stayed at alot of hotels and have never seen this lack of professionalism. When I complained about the noise fron the dogs, I was told its a pet friendly hotel.  So not people friendly? One floor should be designates to people without animals.   If their was somewhere else to stay I would go in a heartbeat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r517545270-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>517545270</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Houston East at Normandy, responded to this reviewResponded August 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r505253094-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505253094</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Better stay</t>
+  </si>
+  <si>
+    <t>I have stayed at this location before my first visit was aweful Neyva was rude and made me feel uncomfortable the room was nice and clean but she was rude but the second time I stayed I talked with someone else  she apologized about my previous stay and made me feel welcomed the room was nice breakfast was great would of preferred scramble eggs but it was ok I would stay again thanks to the better customer serviceMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed at this location before my first visit was aweful Neyva was rude and made me feel uncomfortable the room was nice and clean but she was rude but the second time I stayed I talked with someone else  she apologized about my previous stay and made me feel welcomed the room was nice breakfast was great would of preferred scramble eggs but it was ok I would stay again thanks to the better customer serviceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r499310425-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499310425</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel, good price!</t>
+  </si>
+  <si>
+    <t>We stay at this hotel when we come to town to visit family.  We have tried a couple of other chains in the area, but La Quinta has had the cleanest property and friendliest service. The area around the hotel is an older area of town but we have never encountered a problem of any kind. We have regularly stayed at this property over the last 5 years.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r492915016-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492915016</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Clean, dog-friendly place</t>
+  </si>
+  <si>
+    <t>While traveling cross country we stayed in nothing but La Quinta Hotels and this is one of the best.  Very clean and the newer ones withouth exterior entries.  We were very comfortable and had a great night's sleep on their VERY comfortable beds...and I am very sensitive to bad hotel beds!  We would stay there again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r479131348-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479131348</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Bad attitude at front desk "Marina"</t>
+  </si>
+  <si>
+    <t>White lady with red hair had a terrible attitude like she was mad at me or something she kept ignoring me while I handed her my Quinta card to check in she was very rude and wit bad attitude after that another lady took care of us and it was way better MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2017</t>
+  </si>
+  <si>
+    <t>White lady with red hair had a terrible attitude like she was mad at me or something she kept ignoring me while I handed her my Quinta card to check in she was very rude and wit bad attitude after that another lady took care of us and it was way better More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r475993249-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475993249</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>20 dollar hotel charging 100 dollars</t>
+  </si>
+  <si>
+    <t>I stayed because of location, I had surgery across the interstate 20 highway i would have changed hotels excwpt for this reason. Made reservations ahead of time because I have stayer at LaQuinta many times and this is the worst.aQuinta is better than this. This 100 dollar + taxes was worth about 20 dollarsMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>I stayed because of location, I had surgery across the interstate 20 highway i would have changed hotels excwpt for this reason. Made reservations ahead of time because I have stayer at LaQuinta many times and this is the worst.aQuinta is better than this. This 100 dollar + taxes was worth about 20 dollarsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r472018473-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472018473</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Good Hotel, Spacious Rooms</t>
+  </si>
+  <si>
+    <t>Very nice hotel with spacious rooms.  Located just off I-10 so convenient to everything.  There are numerous restaurants around and a gas station next door.  Breakfast was just OK.  They had those pre-formed eggs that never taste good and individual packaged bagel which are also not great.  However, the room itself was nice and arranged well.  The bathroom had ample counter space for all our stuff.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r465978966-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465978966</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>Location was perfect. Easy to get to. Grounds were well kept. Front desk staff was extremely friendly and professional. Room was comfortable and clean. Would definitely refer to others. Plan on staying at location again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2017</t>
+  </si>
+  <si>
+    <t>Location was perfect. Easy to get to. Grounds were well kept. Front desk staff was extremely friendly and professional. Room was comfortable and clean. Would definitely refer to others. Plan on staying at location again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r465978572-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465978572</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>Great as always!</t>
+  </si>
+  <si>
+    <t>This hotel is great. it's attractive, clean and has great amenities. I've stayed here before and had positive experiences each time. It's a stone's throw to I-10 freeway and next to a Jack in the Box in case you get the late night munchies. It's close to grocery stores and restaurants. The neighborhood is not that great but I also can't say I've had a bad experience while staying there.  The breakfast is really good and there is a lot of variety. The eating area is a reasonable size.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is great. it's attractive, clean and has great amenities. I've stayed here before and had positive experiences each time. It's a stone's throw to I-10 freeway and next to a Jack in the Box in case you get the late night munchies. It's close to grocery stores and restaurants. The neighborhood is not that great but I also can't say I've had a bad experience while staying there.  The breakfast is really good and there is a lot of variety. The eating area is a reasonable size.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r460790269-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460790269</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r436290797-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436290797</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>La Quinta -Normandy</t>
+  </si>
+  <si>
+    <t>i travel alot and i have spent over 100 nights in La Quinta Hotels so far this year. i believe that this is the fourth time  year that i have stayed at this hotel. The staff is friendly and the hotel is clean. the pool looked nice, but the Hot Tub was cold. The hotel is located right off of I-10, between the 610 and Hwy 8, this makes for easy highway access.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r429376295-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429376295</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Good place</t>
+  </si>
+  <si>
+    <t>This is a great place to stay.it is very clean.The staff is very friendly  staff.you are greeted as soon as you walk in the door.i would highly recommend  this place to stay.it is a non smoking motel which is great if you have allergiesMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2016</t>
+  </si>
+  <si>
+    <t>This is a great place to stay.it is very clean.The staff is very friendly  staff.you are greeted as soon as you walk in the door.i would highly recommend  this place to stay.it is a non smoking motel which is great if you have allergiesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r425278180-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425278180</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>great place to stay</t>
+  </si>
+  <si>
+    <t>overall a good hotel to stay at. the staff is very friendly and the rooms are kept clean. breakfast could be better and the tables could be turned around quicker however overall it is a good hotel to stay at. we did not get to use the pool however it appeared to be kept clean as well. the location is ideally located close to the freeways so getting to and from the location is fairly easy    &amp; there are multiple fast food restaurants and a gas station near by.MoreShow less</t>
+  </si>
+  <si>
+    <t>overall a good hotel to stay at. the staff is very friendly and the rooms are kept clean. breakfast could be better and the tables could be turned around quicker however overall it is a good hotel to stay at. we did not get to use the pool however it appeared to be kept clean as well. the location is ideally located close to the freeways so getting to and from the location is fairly easy    &amp; there are multiple fast food restaurants and a gas station near by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r368035897-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>368035897</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>East Houston</t>
+  </si>
+  <si>
+    <t>I stay here quite often and they do keep the place up. It is always busy. Besides the random party in a room there's never really any issues with noise. Beds are comfortable and wifi works well. Breakfast is standard and hotel staff are courteous. This La Quinta doesn't have a store to buy food or items but there is a small store near if you need anything.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r362446787-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362446787</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>This hotel was a surprise, I wasn't sure what to expect on the East Side of Houston for this price. My husband and I were very pleased and will be staying here again if we need a hotel. Lots of dining in the area, from $-$$$$. The room and bathroom was spotless! Don't shy away this hotel is great!</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r360402870-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360402870</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>What a surprise!</t>
+  </si>
+  <si>
+    <t>Very Nice!  Room was super clean and large. The bathroom was updated, and the water pressure for the shower was great!  The bed was comfortable and had a blanket and a duvet. I like to keep the room cold, and the A/C did not disappoint. Wasn't loud and you couldn't really hear it kick on and off. We were just around the corner from the elevator however never heard anything outside of the room. No elevator, no doors slamming, no people. I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r335152272-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335152272</t>
+  </si>
+  <si>
+    <t>12/26/2015</t>
+  </si>
+  <si>
+    <t>Don't Expect a Friendly Front Desk Staff</t>
+  </si>
+  <si>
+    <t>Clean rooms, convenient to I10- and Beltway 8.  Don't expect the front desk staff to go out of their way to greet you, help you or even speak to you.  If they do speak, they mumble and are very difficult to understand.  I have stayed at this hotel numerous times only because the one in Channelview once gave us the key to an occupied room and they are not nearly as clean as the one on Normandy.  Also know that if you need a wheelchair/handicapped room, their's do not have roll in showers or tubs.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r331974071-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331974071</t>
+  </si>
+  <si>
+    <t>12/04/2015</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>Nice and pleasant stay with a friendly staff. Good place for a overnight stay. The breakfast spread was not too large but decent. Location was nice and peaceful. Lots of food places nearby. Overall experience was satisfactory</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r327646224-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327646224</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>My wife and daughter traveled to Houston for a concert and picked this hotel to stay because of its location to Highway. GREAT choice.  Safe, clean, great breakfast. If we are in Houston again it will definitely be our 1st choice!!  The beds were extremely comfortable!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r301715359-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>301715359</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>Close in and Comfortable</t>
+  </si>
+  <si>
+    <t>This hotel is very nice clean and comfortable. The service is great, and its close to my work/service contract locations. I am a frequent sleeper at this hotel. I like it, and they serve warm cookies after 6pm.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r298141864-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>298141864</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst Customer Service </t>
+  </si>
+  <si>
+    <t>As I'm making a reservation we are told they may not have parking and we would need to go check for ourselves. In dire need of a room we go and there is plenty of parking but then are told by staff, Nohney, that the elevators are out. I ask why wasn't this communicated before we got to the hotel because it literally took us 10 minutes to get there and we are told it just happened. I then ask well if that amenity is not available and there was already a discrepancy with parking would there be a discount and we are told no it would be full price. Even if she would have seemed empathetic and apologetic for having is take a "look" at the parking situation I would have stayed and possibly enjoyed my night. MoreShow less</t>
+  </si>
+  <si>
+    <t>As I'm making a reservation we are told they may not have parking and we would need to go check for ourselves. In dire need of a room we go and there is plenty of parking but then are told by staff, Nohney, that the elevators are out. I ask why wasn't this communicated before we got to the hotel because it literally took us 10 minutes to get there and we are told it just happened. I then ask well if that amenity is not available and there was already a discrepancy with parking would there be a discount and we are told no it would be full price. Even if she would have seemed empathetic and apologetic for having is take a "look" at the parking situation I would have stayed and possibly enjoyed my night. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r296514914-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296514914</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Enjoyable</t>
+  </si>
+  <si>
+    <t>this is the second time we have stayed at this hotel, and I'm sure it won't be the last time. The kids love to go down and swim, wished it was an indoor pool! It's a very nice well kept hotel....We love it!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r289730602-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289730602</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Family Vacation (Astros)</t>
+  </si>
+  <si>
+    <t>Our A/C in the living room did not work so we did not get a very good sleep. The staff in the front did lend us a fan but only after I had complained that the room was warmer. Also, the door knob to the restroom kept falling off.      It is sad but we were never contacted nor were the problems worked on during out stay.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r275450926-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275450926</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Exc experience, have 2 small pets &amp; your hotel welcomes them. Very clean, courteous staff, usually a very nice breakfast. We leave our room the way we found it, with exception of linens &amp; unmade bed. lol. We use LaQuinta whenever we travel from Mi to winter home in Texas, or local travel.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r273240571-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273240571</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Quick Visit</t>
+  </si>
+  <si>
+    <t>Stayed two nights. Room wasn't the cleanest. Well used furniture and small stains on the walls and chairs. Items on the carpet. The rest of the room was good.  Everything worked and had no issues. Front Desk staff was nice but not offering much else.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r262518601-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262518601</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>Good hotel, questionable location</t>
+  </si>
+  <si>
+    <t>Service was good, and hotel was clean, but 2nd floor hallway has strange smell (noted in other older reviews). Plenty of space. Hot free breakfast was good but typical.  Free WiFi OK, but occassionally had to switch to different routers due to high traffic.  Location is not the greatest neighborhood, but security guard was present at times.  Back of hotel is right up next to what initially looks like a well organized junk yard, but my family enjoyed watching the craftsman constructing tall birdhouses out of reclaimed materials.  Main downside is that this hotel has no lawn or parking at its back, left side, or right side.  Parking only available in front.  Felt plenty safe on hotel property, but would not recommend walking past the grounds.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Service was good, and hotel was clean, but 2nd floor hallway has strange smell (noted in other older reviews). Plenty of space. Hot free breakfast was good but typical.  Free WiFi OK, but occassionally had to switch to different routers due to high traffic.  Location is not the greatest neighborhood, but security guard was present at times.  Back of hotel is right up next to what initially looks like a well organized junk yard, but my family enjoyed watching the craftsman constructing tall birdhouses out of reclaimed materials.  Main downside is that this hotel has no lawn or parking at its back, left side, or right side.  Parking only available in front.  Felt plenty safe on hotel property, but would not recommend walking past the grounds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r258327490-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258327490</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>Receptionist and location</t>
+  </si>
+  <si>
+    <t>I gave a full detail on prior page, Receptionist very caring and helpful. Hotel lobby very nice, Accommodation floor could have used more cleaning. The room I stayed in was very comfortable,floor could have been a bit cleaner I did find things on it. Pricing for the area I felt was reasonable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r253618853-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253618853</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>great motel</t>
+  </si>
+  <si>
+    <t>No truck parking but well worth the taxi fare. Huge,clean rooms with a couch, chair, coffee table, and lots of floor space. Great breakfast. Very welcoming night clerk. I can't stress enough how great the room we had was. Expensive, but great. Not a good pet exercise area, but adequate.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r247518222-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247518222</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>Hotel is well maintained.  Staff are efficient.  Rooms are clean and generally in good repair.  A little too pricey for what you get.  Back yard of hotel looks like a tornado hit it, so get a room that faces front.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r245052184-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245052184</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>Good Value on Houton's East Side</t>
+  </si>
+  <si>
+    <t>This LaQuinta is just off I-10 in East Houston.  It is pretty standard for a LaQuinta and offers a clean, comfortable room at a reasonable price for the area.  I was on the end of the hotel farthest away from I-10 and did not notice any distracting highway noise.  The other end is separated from the highway by a filling station, which should also help a little with the noise on that end.  You will have to fight some traffic in the morning if your business is downtown, but if you have business on the East side, this hotel is a good place to stay.  They also had the chocolate chip muffins on the breakfast bar!!!!  You don't always see those, and they are a personal favorite of mine.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>This LaQuinta is just off I-10 in East Houston.  It is pretty standard for a LaQuinta and offers a clean, comfortable room at a reasonable price for the area.  I was on the end of the hotel farthest away from I-10 and did not notice any distracting highway noise.  The other end is separated from the highway by a filling station, which should also help a little with the noise on that end.  You will have to fight some traffic in the morning if your business is downtown, but if you have business on the East side, this hotel is a good place to stay.  They also had the chocolate chip muffins on the breakfast bar!!!!  You don't always see those, and they are a personal favorite of mine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r244375444-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244375444</t>
+  </si>
+  <si>
+    <t>12/14/2014</t>
+  </si>
+  <si>
+    <t>Handy location</t>
+  </si>
+  <si>
+    <t>Quite handy access coming from the airport, and also if heading east or going into the city - this would have been preferable to staying at The Club Quarters, Houston, on our way back from New Orleans.Probably not a great area for a gentle evening stroll, but anything you need is only a short drive away.Warrior193.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r237216041-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237216041</t>
+  </si>
+  <si>
+    <t>10/23/2014</t>
+  </si>
+  <si>
+    <t>Customer Satisfaction</t>
+  </si>
+  <si>
+    <t>Breakfast food and Coffee need to be upgraded. cleaniness of outside need to be addressed smoking guest at the front door should not be allowed pet hair on sofa got on my uniform and I did not have a dog</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r229721121-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229721121</t>
+  </si>
+  <si>
+    <t>09/13/2014</t>
+  </si>
+  <si>
+    <t>LaQuinta Normandy</t>
+  </si>
+  <si>
+    <t>New hotel, top quality.  Friendly staff and very hospitable.  Accomodations are over and above expectations.  Breakfast is fine, but tiresome after awhile- needs a flexible variety in choices.  It is hot and good, however.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r227027276-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>227027276</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Overnight in Houston</t>
+  </si>
+  <si>
+    <t>Everything was the best it could be at the La Quinta-Normandy.  From the  check in to the free breakfast to the smooth check out.  The bed was very comfortable and the hotel was clean and well cared for.  If in this area, it should be your first choice.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r219504903-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>219504903</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>A good stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was very busy when we stayed here. There were a lot of little kids, but we wernt bothered by anyone through out the night. The room was very spacious and clean. Alot of choices for breakfast and the staff there were nice and professional. We would recommend this hotel to anyone in the area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r217700660-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217700660</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>50/50</t>
+  </si>
+  <si>
+    <t>I think that at one time this hotel was a top of the line Laquinta. Our room was nice actually very comfortable. There are signs that the hotel is ready for a make over or just going down hill.  They desk gal was fine. Not overly friendly but definitely not rude.  The girl the came on later the same.  I went to get a soda and the security guard was getting one also. She glared at my husband and I the entire time like we were her prey, not even a hint of a smile or hello.  headed to the elevator ams on the time in the middle of the lobby, a Cochroach the size of a twinkie was laying Freshley smashed.  Ok I know this is Texas and there are bugs but the security guard should If cleaned it up or had someone.  I will say I haven't seem any sign of bugs in my room so maybe he crawled in from outside.  But now im nervous. The area is quite scary. But not horribleMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I think that at one time this hotel was a top of the line Laquinta. Our room was nice actually very comfortable. There are signs that the hotel is ready for a make over or just going down hill.  They desk gal was fine. Not overly friendly but definitely not rude.  The girl the came on later the same.  I went to get a soda and the security guard was getting one also. She glared at my husband and I the entire time like we were her prey, not even a hint of a smile or hello.  headed to the elevator ams on the time in the middle of the lobby, a Cochroach the size of a twinkie was laying Freshley smashed.  Ok I know this is Texas and there are bugs but the security guard should If cleaned it up or had someone.  I will say I haven't seem any sign of bugs in my room so maybe he crawled in from outside.  But now im nervous. The area is quite scary. But not horribleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r215096594-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215096594</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>La Quinta on Normandy</t>
+  </si>
+  <si>
+    <t>I had a great experience.  I was a little concerned about the location as I had seen other reviews noting the hotel was near a not-so-great part of town.  I had no issues or concerns about this once I arrived.  There is plenty of parking right in front of the hotel and a security guard was on duty.  Check in and out was quick and easy.  The room was clean and comfortable, and the breakfast was pretty good.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r209335154-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209335154</t>
+  </si>
+  <si>
+    <t>06/07/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r205544544-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205544544</t>
+  </si>
+  <si>
+    <t>05/14/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r199450501-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199450501</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>A very sad day</t>
+  </si>
+  <si>
+    <t>This is the first BAD review I had to write of any of my stays for sometime. Especially a LaQuinta as they are the hotel of choice for me and my family. I've always appreciated the value in LaQuinta's for my short stay vacations. We are a family of 4, two adults, two teens and the family dog. The price was always good, the services most great, and rooms/amenities more than acceptable for the price. But this particular La Quinta was the exception to the rule. 
+Check-in was fast and service with a smile. I like that no matter what the price. But shortly after unloading the tribe, my wife and daughter noted a thuggish logging man standing outside his room, just ogling them. At least until I appeared around the corner with a 90lb dog and large 14y/o son. Strike two comes within 3 minutes of closing the door, my daughter has to use the bathroom, and noted the toilet doesn't flush. So I call the front desk, and they did send the "maid" over to confirm its broken. Mr. thug all the while still standing outside his door.
+No I know some might say I was jumping to conclusions, but spend a lifetime living in the inner city, and you know when someone is up to no good. So after seeing the same behaviour, I go the the manager and lodge my concerns. Nothing comes of that. So...This is the first BAD review I had to write of any of my stays for sometime. Especially a LaQuinta as they are the hotel of choice for me and my family. I've always appreciated the value in LaQuinta's for my short stay vacations. We are a family of 4, two adults, two teens and the family dog. The price was always good, the services most great, and rooms/amenities more than acceptable for the price. But this particular La Quinta was the exception to the rule. Check-in was fast and service with a smile. I like that no matter what the price. But shortly after unloading the tribe, my wife and daughter noted a thuggish logging man standing outside his room, just ogling them. At least until I appeared around the corner with a 90lb dog and large 14y/o son. Strike two comes within 3 minutes of closing the door, my daughter has to use the bathroom, and noted the toilet doesn't flush. So I call the front desk, and they did send the "maid" over to confirm its broken. Mr. thug all the while still standing outside his door.No I know some might say I was jumping to conclusions, but spend a lifetime living in the inner city, and you know when someone is up to no good. So after seeing the same behaviour, I go the the manager and lodge my concerns. Nothing comes of that. So back to my room to gather the folks before heading out to lunch, I decide to see if it's safe for my kids to use the swimming pool. It's down the hall past my room, through the external access door. While standing there for a couple minutes, guess who comes out with a buddy? Yup and trying to give me the stink eye. Sorry I don't scare easily, and not especially with a Texas CHL. Those from Texas knows what this is. But I spoke to them nicely, and head back inside. Unfortunately that little adventure just confirmed my suspicions, and I had the curtail the activities for the wife and kids to swim or go the the fitness room. I'm not looking for confrontation, but trying to avoid it at all cost. As a father though I will do whatever to protect my family. Thank God it didn't get worse. We left for a couple hours after that hoping the situation would resolve itself. Before leaving the desk clerk did try to sympathize and offer to move us to another room. I accepted and asked that it be ready on our return.True to their word La Quinta did move us. Though it took some convincing to the new desk clerk of what had been promised., Especially since the two knuckle heads where still lurking about. I was ready to dump my $109 and move to another hotel at my cost. She did move us to the second floor, and didn't hear any more from the shady fellows. However, as soon as we get to the new room and decide to order some pizza, we noted the phone cable was broken. I was able to patch it quickly, but they never fixed the issue. Happy to say this was just supposed to be a 1 day stay. If not I would have made it short due to all we experienced. I strong discourage using the location. Very sketchy neighborhood, sketchy people inside and outside the motel. There are better accommodations around, you just need to be a bit picky and chose wisely. Hope this helps someone from frustration.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>This is the first BAD review I had to write of any of my stays for sometime. Especially a LaQuinta as they are the hotel of choice for me and my family. I've always appreciated the value in LaQuinta's for my short stay vacations. We are a family of 4, two adults, two teens and the family dog. The price was always good, the services most great, and rooms/amenities more than acceptable for the price. But this particular La Quinta was the exception to the rule. 
+Check-in was fast and service with a smile. I like that no matter what the price. But shortly after unloading the tribe, my wife and daughter noted a thuggish logging man standing outside his room, just ogling them. At least until I appeared around the corner with a 90lb dog and large 14y/o son. Strike two comes within 3 minutes of closing the door, my daughter has to use the bathroom, and noted the toilet doesn't flush. So I call the front desk, and they did send the "maid" over to confirm its broken. Mr. thug all the while still standing outside his door.
+No I know some might say I was jumping to conclusions, but spend a lifetime living in the inner city, and you know when someone is up to no good. So after seeing the same behaviour, I go the the manager and lodge my concerns. Nothing comes of that. So...This is the first BAD review I had to write of any of my stays for sometime. Especially a LaQuinta as they are the hotel of choice for me and my family. I've always appreciated the value in LaQuinta's for my short stay vacations. We are a family of 4, two adults, two teens and the family dog. The price was always good, the services most great, and rooms/amenities more than acceptable for the price. But this particular La Quinta was the exception to the rule. Check-in was fast and service with a smile. I like that no matter what the price. But shortly after unloading the tribe, my wife and daughter noted a thuggish logging man standing outside his room, just ogling them. At least until I appeared around the corner with a 90lb dog and large 14y/o son. Strike two comes within 3 minutes of closing the door, my daughter has to use the bathroom, and noted the toilet doesn't flush. So I call the front desk, and they did send the "maid" over to confirm its broken. Mr. thug all the while still standing outside his door.No I know some might say I was jumping to conclusions, but spend a lifetime living in the inner city, and you know when someone is up to no good. So after seeing the same behaviour, I go the the manager and lodge my concerns. Nothing comes of that. So back to my room to gather the folks before heading out to lunch, I decide to see if it's safe for my kids to use the swimming pool. It's down the hall past my room, through the external access door. While standing there for a couple minutes, guess who comes out with a buddy? Yup and trying to give me the stink eye. Sorry I don't scare easily, and not especially with a Texas CHL. Those from Texas knows what this is. But I spoke to them nicely, and head back inside. Unfortunately that little adventure just confirmed my suspicions, and I had the curtail the activities for the wife and kids to swim or go the the fitness room. I'm not looking for confrontation, but trying to avoid it at all cost. As a father though I will do whatever to protect my family. Thank God it didn't get worse. We left for a couple hours after that hoping the situation would resolve itself. Before leaving the desk clerk did try to sympathize and offer to move us to another room. I accepted and asked that it be ready on our return.True to their word La Quinta did move us. Though it took some convincing to the new desk clerk of what had been promised., Especially since the two knuckle heads where still lurking about. I was ready to dump my $109 and move to another hotel at my cost. She did move us to the second floor, and didn't hear any more from the shady fellows. However, as soon as we get to the new room and decide to order some pizza, we noted the phone cable was broken. I was able to patch it quickly, but they never fixed the issue. Happy to say this was just supposed to be a 1 day stay. If not I would have made it short due to all we experienced. I strong discourage using the location. Very sketchy neighborhood, sketchy people inside and outside the motel. There are better accommodations around, you just need to be a bit picky and chose wisely. Hope this helps someone from frustration.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r197347644-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197347644</t>
+  </si>
+  <si>
+    <t>03/13/2014</t>
+  </si>
+  <si>
+    <t>La Quinta Normandy Dr Houston Tx</t>
+  </si>
+  <si>
+    <t>Hotel was nice.  looked newly remodeled.  If your room is on backside of hotel your view is of a junk yard where the owner works on power equipment till about 930 PM.  Also signs posted in parking lot is they are not responsibile for stolen items left in car or damage to car.  security gaurd was on duty at night, but still kind of scary.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r195967828-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195967828</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>La Quinta  Houston (Normandy)</t>
+  </si>
+  <si>
+    <t>Hotels in Houston are overpriced.  Breakfast at this site was disappointing.  Also, the room contained too few clothes hangers, a problem for people traveling from colder climates (who travel w more clothes).</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r193030006-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193030006</t>
+  </si>
+  <si>
+    <t>02/02/2014</t>
+  </si>
+  <si>
+    <t>Houston trip</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stay at the LaQuinta on Normany  St. in Houston mostly.  We enjoy this clean well managed hotel...it is near to most of our clients.  We stay closer to the Medical center when we have Medical appointments, usually at the Hilton.  LaQuinta is quite and we enjoy the ease of checking in and out.  The breakfast are a plus for the price.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r186674811-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186674811</t>
+  </si>
+  <si>
+    <t>12/03/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>Clean rooms and professional and friendly staff are a warm welcome to a weary traveler. Free breakfast and Internet are added values. This is a very nice place to stay for a business traveler or family .,</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r183714294-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183714294</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>All the staff at this hotel are there to help you...the breakfast spread is delicious and the accomodations are great!! I have nothing but great things to say about this hotel.  I stayed here in August 2013 and knew that I was going to stay there upon my return.  My sister lives nearbly and I see myself staying there every single time I go to Houston Texas.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r180521996-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180521996</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Good nights sleep!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great customer service, greeted with friendly and very helpful staff. Fast free wifi throughout the hotel (even in the car park!). Large clean rooms with the extra touch and extras. Very modern. Ample parking. Comfy beds. Located close to food outlets and Walmart a short drive away. </t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r164697334-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164697334</t>
+  </si>
+  <si>
+    <t>06/21/2013</t>
+  </si>
+  <si>
+    <t>All by myself</t>
+  </si>
+  <si>
+    <t>I booked this room not really knowing where it was or type of hotel. I was. In Houston by 10:20 am they let me go ahead and check in.which was nice because we had driven in from Dallas. We were in town for New Student Orentation for University Of Houston. Thanks guys I slept well, breakfast good and friendly service.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r163053016-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163053016</t>
+  </si>
+  <si>
+    <t>06/05/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r162641218-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162641218</t>
+  </si>
+  <si>
+    <t>06/01/2013</t>
+  </si>
+  <si>
+    <t>great room size &amp; amenities with great price</t>
+  </si>
+  <si>
+    <t>I stayed here a few weeks ago but am just taking the time to review the hotel.  I had a room with tons space.  I find that space in a hotel room really makes a difference when staying several days.  The staff was great and so was the breakfast.  The hotel was easy to access as well.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r155063548-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155063548</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>Best Bang For Your Buck!</t>
+  </si>
+  <si>
+    <t>We stayed 3 nights at this La Quinta while competing in an Ag Mechanics show at the Houston Livestock Show and Rodeo in March of 2013.  I never expected to find this nice of accomodations when I first booked our reservation.  I was very pleased when I opened the door to our room.  Very clean and up to date ammenities.  Fridge and microwave in the room along with wi-fi and a large flatscreen tv made travel with 3 kids just that much more enjoyable.  Thanks for a great stay!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r154644255-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154644255</t>
+  </si>
+  <si>
+    <t>03/15/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r148651115-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148651115</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>Very helpful</t>
+  </si>
+  <si>
+    <t>I did not stay here, BUT, traveling on 12/21 I got caught in 2.5 hour stopped traffic jam in Houston on my way to a La Quinta Inn, in Walker, LA.  It was dark, cold about 6:30 pm and needed to feed my 2 little dogs and find a car phone charger since I didn't know mine wasn't working until I got an alert message.I was going to stop at a roadside place, but traveling by myself (female, senior) was a bit nervous.So I pulled into this La Quinta, explained to the young lady behind the desk my dilemma.  She invited me to bring the dogs into the lobby and feed them there while my phone charged in one of their outlets. She also explained that car phone chargers are generally universal and I could get one at a bigger gas station and directed me to one.  She asked if I needed any help in feeding the dogs too.I believe here name was Sonya.She was aware of the traffic jam in either direction that afternoon/evening into/out of Houston because she had bought her parents tickets to see the Tran Siberian Orchestra, but they too got stuck in the jam and missed the show.  Thank you Sonya.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>I did not stay here, BUT, traveling on 12/21 I got caught in 2.5 hour stopped traffic jam in Houston on my way to a La Quinta Inn, in Walker, LA.  It was dark, cold about 6:30 pm and needed to feed my 2 little dogs and find a car phone charger since I didn't know mine wasn't working until I got an alert message.I was going to stop at a roadside place, but traveling by myself (female, senior) was a bit nervous.So I pulled into this La Quinta, explained to the young lady behind the desk my dilemma.  She invited me to bring the dogs into the lobby and feed them there while my phone charged in one of their outlets. She also explained that car phone chargers are generally universal and I could get one at a bigger gas station and directed me to one.  She asked if I needed any help in feeding the dogs too.I believe here name was Sonya.She was aware of the traffic jam in either direction that afternoon/evening into/out of Houston because she had bought her parents tickets to see the Tran Siberian Orchestra, but they too got stuck in the jam and missed the show.  Thank you Sonya.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r147366930-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147366930</t>
+  </si>
+  <si>
+    <t>12/13/2012</t>
+  </si>
+  <si>
+    <t>This is a very clean Hotel and the service was wonderful! Breakfast was very good. The staff was very nice and helpful. Location very good close to alot of places. I plan to stay here any time I'm in Houston. I won't go any where else but this Hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r146553766-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146553766</t>
+  </si>
+  <si>
+    <t>12/01/2012</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>Location was of the most up most importance Central to everything that I wanted to visit.  The room was Clean and Large Plenty of room to move around in.  One of the staff was sad to see us go (traveled with our dogs) said she enjoyed seeing our pets every morning.  Which not many places say and mean.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r143314475-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143314475</t>
+  </si>
+  <si>
+    <t>10/20/2012</t>
+  </si>
+  <si>
+    <t>wonder hotel</t>
+  </si>
+  <si>
+    <t>People if you're in Houston,Texas and need a hotel off the I-10,this is the place to be.I enjoyed my stay the staff was outstanding exceptionally clean rooms.I could go on but, you need to experience it for you self.I'll give it a "20". Good value I didn't want to leave.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r135205423-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135205423</t>
+  </si>
+  <si>
+    <t>07/23/2012</t>
+  </si>
+  <si>
+    <t>Would stay here again!</t>
+  </si>
+  <si>
+    <t>Very nice, clean hotel! Great place too for people that travel w/ their furry family members! Great spread in the morning, very comfortable rooms w/ micro- fridges, which help save money on meals so you can heat something in your room if you want.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r134301212-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>134301212</t>
+  </si>
+  <si>
+    <t>07/13/2012</t>
+  </si>
+  <si>
+    <t>The BEST Affordable Hotel in Houston - Great Extended Stay Hotel!!!</t>
+  </si>
+  <si>
+    <t>This La Quinta is one of the best I have stayed in anywhere.  Very clean, super convenient to downtown attractions (15 minutes to the Astros, Toyota Center, House of Blues, The Bayou Music Center) full breakfast with eggs and meats included (along with the usual waffles, cereal, breads, pastries)!  Many places to eat just minutes away and a spotless pool to top it all off. What really sets this La Quinta apart is the staff.  They are the most friendly and hardest working I have seen at a hotel in recent memory.  Sonya at the front desk is awesome!  Super friendly and helpful and always baking cookies!  The cleaning staff - especially Betty - are the best.  I lived here for 67 days and my room was cleaned daily and nothing was EVER missing.  You could leave money and/or things of value out be mistake and they were always there when you returned to the room.  All of the staff were very courteous and extremely pleasant.  For the money this hotel is one of the best in Houston.  They definitely made my relocation to Houston a much easier one - Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>This La Quinta is one of the best I have stayed in anywhere.  Very clean, super convenient to downtown attractions (15 minutes to the Astros, Toyota Center, House of Blues, The Bayou Music Center) full breakfast with eggs and meats included (along with the usual waffles, cereal, breads, pastries)!  Many places to eat just minutes away and a spotless pool to top it all off. What really sets this La Quinta apart is the staff.  They are the most friendly and hardest working I have seen at a hotel in recent memory.  Sonya at the front desk is awesome!  Super friendly and helpful and always baking cookies!  The cleaning staff - especially Betty - are the best.  I lived here for 67 days and my room was cleaned daily and nothing was EVER missing.  You could leave money and/or things of value out be mistake and they were always there when you returned to the room.  All of the staff were very courteous and extremely pleasant.  For the money this hotel is one of the best in Houston.  They definitely made my relocation to Houston a much easier one - Thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r132952015-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132952015</t>
+  </si>
+  <si>
+    <t>06/28/2012</t>
+  </si>
+  <si>
+    <t>Handicap Accessible</t>
+  </si>
+  <si>
+    <t>Wonderful stay. Huge rooms/suite. I requested a handicap shower and we were provided with a beautiful suite with plenty of space to move the wheelchair around. Great service. Needed extra pillows and towels for my disabled mother and I was provided them without hassle. I would difinitely stay again if I ever travel to that area. The staff was very helpful and friendly. I paid around $140 + tax for the room/suite and it was well work the money to accomodate our special needs.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r130268513-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130268513</t>
+  </si>
+  <si>
+    <t>05/20/2012</t>
+  </si>
+  <si>
+    <t>Surprised...in a good way</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel for a graduation weekend and were surprised at the cleanliness of this hotel.  This hotel had upscale lights, very updated and the staff was always very friendly.  We stayed in a room with two beds, a microwave &amp; refrigerator. We were very satisfied with our room and restroom. Everything worked, no signs of previous guests as you sometimes get with some hotels. The location is away but close enough to where you need to be with great access to I-10.  I felt 100% safe at this location and would recommend to anyone. The price is extremely reasonable for this location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r127187702-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127187702</t>
+  </si>
+  <si>
+    <t>04/03/2012</t>
+  </si>
+  <si>
+    <t>Best around this area of Houston</t>
+  </si>
+  <si>
+    <t>I really loved that I was able to stay in the area where my daughter was at. At first I wasn't to sure because I am not familiar with the area on how safe it is, but I stayed around 2 weeks here and everything was nice. You will get the random crazy guest checking in, but everything is handled nicely by the staff. One call to the front desk and they're on it! I didn't see a lot of family staying..mainly business people or workers, i guess because its so close to the main areas where people work like the port and downtown. I had never avoided so much traffic. Coming from this side of town into Houston was ideal. in general everything was good. I do agree with the occasional hard boiled eggs, but then again who wouldn't want their mom cooking at the hotel for us? : ) awesome stay...thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>I really loved that I was able to stay in the area where my daughter was at. At first I wasn't to sure because I am not familiar with the area on how safe it is, but I stayed around 2 weeks here and everything was nice. You will get the random crazy guest checking in, but everything is handled nicely by the staff. One call to the front desk and they're on it! I didn't see a lot of family staying..mainly business people or workers, i guess because its so close to the main areas where people work like the port and downtown. I had never avoided so much traffic. Coming from this side of town into Houston was ideal. in general everything was good. I do agree with the occasional hard boiled eggs, but then again who wouldn't want their mom cooking at the hotel for us? : ) awesome stay...thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r125087793-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125087793</t>
+  </si>
+  <si>
+    <t>02/23/2012</t>
+  </si>
+  <si>
+    <t>Decent hotel for a short stay in Houston</t>
+  </si>
+  <si>
+    <t>The hotel interior is nice and clean.  The staff were friendly.  The complimentary breakfast was decent with typical waffles, bagels, bread, biscuits and gravy, eggs and bacon/sausages.  One of the mornings while we were having breakfast, we saw one of the Spanish speaking staff (in hotel uniforms) brought her two small kids to eat there as well.  It is a bit unprofessional for my standpoint.  The area where the hotel is located is mixed.  It is not in a bad area, but not a nice area either.  I felt reasonably safe, but I'd advise caution.  We stayed here for a two-day college visit, and would consider stay here again in the future.  However, this would not be a place I'd choose to stay for vacation though.  By the way, the hotel is only about 20-30 minute drive to downtown provided smooth traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>The hotel interior is nice and clean.  The staff were friendly.  The complimentary breakfast was decent with typical waffles, bagels, bread, biscuits and gravy, eggs and bacon/sausages.  One of the mornings while we were having breakfast, we saw one of the Spanish speaking staff (in hotel uniforms) brought her two small kids to eat there as well.  It is a bit unprofessional for my standpoint.  The area where the hotel is located is mixed.  It is not in a bad area, but not a nice area either.  I felt reasonably safe, but I'd advise caution.  We stayed here for a two-day college visit, and would consider stay here again in the future.  However, this would not be a place I'd choose to stay for vacation though.  By the way, the hotel is only about 20-30 minute drive to downtown provided smooth traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r119234768-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119234768</t>
+  </si>
+  <si>
+    <t>10/12/2011</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Was in town to work on a Habitat project nearby.  Decided to stay in a hotel rather than having to fight early morning traffic from the west side of Houston.  Chose this La Quinta based on reviews and price.  Nice, clean hotel, although the hotel had a strange smell in the halls.  It may have been new carpet or something.  We did have an initial problem with service at the front desk when we arrived and after waiting a while had to actually call the hotel to get a response.  The clerk claimed to be having problems of some kind, but once we were checked in our stay was fine.  Breakfast was very good and the attendants were pleasant and helpful.  This La Quinta is nice and our stay was pleasant.  If you need to stay on the east side of Houston near Interstate 10 and want a nice, comfortable room at a good price, then I recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Was in town to work on a Habitat project nearby.  Decided to stay in a hotel rather than having to fight early morning traffic from the west side of Houston.  Chose this La Quinta based on reviews and price.  Nice, clean hotel, although the hotel had a strange smell in the halls.  It may have been new carpet or something.  We did have an initial problem with service at the front desk when we arrived and after waiting a while had to actually call the hotel to get a response.  The clerk claimed to be having problems of some kind, but once we were checked in our stay was fine.  Breakfast was very good and the attendants were pleasant and helpful.  This La Quinta is nice and our stay was pleasant.  If you need to stay on the east side of Houston near Interstate 10 and want a nice, comfortable room at a good price, then I recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r117400019-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117400019</t>
+  </si>
+  <si>
+    <t>08/29/2011</t>
+  </si>
+  <si>
+    <t>Very Satisfied and can recommend highly</t>
+  </si>
+  <si>
+    <t>I planned a one-night visit to Houston, TX for business.  My meeting was located only about a mile from this LaQuinta (there is another LaQuinta located only about a mile to the west), and I saw the great reviews on this site, so I decided to stay here.  It was great.  The rooms were clean, comfortable, and business-friendly.  The front-desk staff and other employees were overly friendly.  The free breakfast in the morning was very good.  An excellent bargain, and I would not hesitate to stay here in the future.  Final note:  The hotel is located about 25 minutes from Hobby Airport and about 35-40 from Bush International.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r116752267-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116752267</t>
+  </si>
+  <si>
+    <t>08/15/2011</t>
+  </si>
+  <si>
+    <t>Best La Quinta in Houston</t>
+  </si>
+  <si>
+    <t>Should you ever need to stay on the east side of Houston just off I-10 and 15 minutes from downtown (depending on the time of day), this is currently the best choice. La Quinta Normandy is very new. As a result, so are all the fixtures, carpet, TVs, luxurious King beds, bathrooms and so on. For a budget hotel, this place is positively luxurious.The pool was clean, the breakfast decent for being included (eggs, bacon or sausage, along with fruit, cereal, bread, bagels etc) and the staff was friendly and helpful. I cannot think of anything that wasn't right with this place, right down to the microwave and bar fridge in every room. A great bargain!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Should you ever need to stay on the east side of Houston just off I-10 and 15 minutes from downtown (depending on the time of day), this is currently the best choice. La Quinta Normandy is very new. As a result, so are all the fixtures, carpet, TVs, luxurious King beds, bathrooms and so on. For a budget hotel, this place is positively luxurious.The pool was clean, the breakfast decent for being included (eggs, bacon or sausage, along with fruit, cereal, bread, bagels etc) and the staff was friendly and helpful. I cannot think of anything that wasn't right with this place, right down to the microwave and bar fridge in every room. A great bargain!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r50654248-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>50654248</t>
+  </si>
+  <si>
+    <t>12/04/2009</t>
+  </si>
+  <si>
+    <t>Very nice surprise</t>
+  </si>
+  <si>
+    <t>I was in Houston for 3 nights attending a conference.  I searched trip advisor thoroughly trying to find a nice hotel where I would feel comfortable, as I am very, very picky about my hotel accommodations.  I either try to find a hotel in a city that is new (within 12 months of opening) or is 4-5*.  I found this Laquinta which was newly opened and it did not disappoint.  The room was very modern and new.  The furnishings and interior decorations were beautiful.  Usually, if I am unsure of a location I purchase my own set of bedding once I arrive in the city to ensure that I am comfortable.  At this location, there was no need to bother.  I was quite comfortable with the sheets and comforter that were on the bed - they appeared brand new.  
+What was surprising to me was the level of customer service I received from such an establishment.  Although the price we paid was not on the level of the Four Seasons or Ritz Carlton, the level of service we received was comparable to those 5* hotels.  Front desk employees always addressed us by name and were just as helpful, if not more, than any other 5* concierge I have dealt with.  
+The hotel provided a very adequate continental breakfast each morning and although I did not partake, others in my party were quite satisfied. 
+Overall, I would most highly recommend this...I was in Houston for 3 nights attending a conference.  I searched trip advisor thoroughly trying to find a nice hotel where I would feel comfortable, as I am very, very picky about my hotel accommodations.  I either try to find a hotel in a city that is new (within 12 months of opening) or is 4-5*.  I found this Laquinta which was newly opened and it did not disappoint.  The room was very modern and new.  The furnishings and interior decorations were beautiful.  Usually, if I am unsure of a location I purchase my own set of bedding once I arrive in the city to ensure that I am comfortable.  At this location, there was no need to bother.  I was quite comfortable with the sheets and comforter that were on the bed - they appeared brand new.  What was surprising to me was the level of customer service I received from such an establishment.  Although the price we paid was not on the level of the Four Seasons or Ritz Carlton, the level of service we received was comparable to those 5* hotels.  Front desk employees always addressed us by name and were just as helpful, if not more, than any other 5* concierge I have dealt with.  The hotel provided a very adequate continental breakfast each morning and although I did not partake, others in my party were quite satisfied. Overall, I would most highly recommend this location.  The accommodations are great, the price is very reasonable, and the level of customer service provided is phenomenal.  I would not hesitate to stay here again, and believe me that says a lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>I was in Houston for 3 nights attending a conference.  I searched trip advisor thoroughly trying to find a nice hotel where I would feel comfortable, as I am very, very picky about my hotel accommodations.  I either try to find a hotel in a city that is new (within 12 months of opening) or is 4-5*.  I found this Laquinta which was newly opened and it did not disappoint.  The room was very modern and new.  The furnishings and interior decorations were beautiful.  Usually, if I am unsure of a location I purchase my own set of bedding once I arrive in the city to ensure that I am comfortable.  At this location, there was no need to bother.  I was quite comfortable with the sheets and comforter that were on the bed - they appeared brand new.  
+What was surprising to me was the level of customer service I received from such an establishment.  Although the price we paid was not on the level of the Four Seasons or Ritz Carlton, the level of service we received was comparable to those 5* hotels.  Front desk employees always addressed us by name and were just as helpful, if not more, than any other 5* concierge I have dealt with.  
+The hotel provided a very adequate continental breakfast each morning and although I did not partake, others in my party were quite satisfied. 
+Overall, I would most highly recommend this...I was in Houston for 3 nights attending a conference.  I searched trip advisor thoroughly trying to find a nice hotel where I would feel comfortable, as I am very, very picky about my hotel accommodations.  I either try to find a hotel in a city that is new (within 12 months of opening) or is 4-5*.  I found this Laquinta which was newly opened and it did not disappoint.  The room was very modern and new.  The furnishings and interior decorations were beautiful.  Usually, if I am unsure of a location I purchase my own set of bedding once I arrive in the city to ensure that I am comfortable.  At this location, there was no need to bother.  I was quite comfortable with the sheets and comforter that were on the bed - they appeared brand new.  What was surprising to me was the level of customer service I received from such an establishment.  Although the price we paid was not on the level of the Four Seasons or Ritz Carlton, the level of service we received was comparable to those 5* hotels.  Front desk employees always addressed us by name and were just as helpful, if not more, than any other 5* concierge I have dealt with.  The hotel provided a very adequate continental breakfast each morning and although I did not partake, others in my party were quite satisfied. Overall, I would most highly recommend this location.  The accommodations are great, the price is very reasonable, and the level of customer service provided is phenomenal.  I would not hesitate to stay here again, and believe me that says a lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r35006042-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>35006042</t>
+  </si>
+  <si>
+    <t>07/17/2009</t>
+  </si>
+  <si>
+    <t>Good quality and great service...</t>
+  </si>
+  <si>
+    <t>Visited this hotel in the start of July. I was on a roadtrip from New York to LA with my friends, and we where stopping in all the mayor cities. After a long drive from New Orleans, we spotted this hotel of the I-10. The two nigth-clerks where so nice and even gave us a discount on the room since we arrived so late. After staying on a lot of 50-90$ hotels we where astounded by how nice this hotel was. Very good rooms that felt very clean and a good working air condition. The pool area was also very nice, and the night clerk even turned on the lights for us at 2 am. The breakfast was ok, a make your own waffel station. Bagels, eggs, bacon and sausage. Very good if you count the price of 69.99 for four people in a two double bed room. The hotel is nicely located if you have a car. If not its to far away from houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>Visited this hotel in the start of July. I was on a roadtrip from New York to LA with my friends, and we where stopping in all the mayor cities. After a long drive from New Orleans, we spotted this hotel of the I-10. The two nigth-clerks where so nice and even gave us a discount on the room since we arrived so late. After staying on a lot of 50-90$ hotels we where astounded by how nice this hotel was. Very good rooms that felt very clean and a good working air condition. The pool area was also very nice, and the night clerk even turned on the lights for us at 2 am. The breakfast was ok, a make your own waffel station. Bagels, eggs, bacon and sausage. Very good if you count the price of 69.99 for four people in a two double bed room. The hotel is nicely located if you have a car. If not its to far away from houston.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1931,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1963,4939 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>120</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>141</v>
+      </c>
+      <c r="X14" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>149</v>
+      </c>
+      <c r="X15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>164</v>
+      </c>
+      <c r="X18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s">
+        <v>109</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>176</v>
+      </c>
+      <c r="X19" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s">
+        <v>182</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>185</v>
+      </c>
+      <c r="J21" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s">
+        <v>188</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>189</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>190</v>
+      </c>
+      <c r="X21" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" t="s">
+        <v>102</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>190</v>
+      </c>
+      <c r="X22" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>210</v>
+      </c>
+      <c r="O24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" t="s">
+        <v>215</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>217</v>
+      </c>
+      <c r="J26" t="s">
+        <v>218</v>
+      </c>
+      <c r="K26" t="s">
+        <v>219</v>
+      </c>
+      <c r="L26" t="s">
+        <v>220</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>221</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>223</v>
+      </c>
+      <c r="J27" t="s">
+        <v>224</v>
+      </c>
+      <c r="K27" t="s">
+        <v>225</v>
+      </c>
+      <c r="L27" t="s">
+        <v>226</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>227</v>
+      </c>
+      <c r="O27" t="s">
+        <v>228</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>230</v>
+      </c>
+      <c r="J28" t="s">
+        <v>231</v>
+      </c>
+      <c r="K28" t="s">
+        <v>232</v>
+      </c>
+      <c r="L28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>227</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" t="s">
+        <v>237</v>
+      </c>
+      <c r="L29" t="s">
+        <v>238</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>239</v>
+      </c>
+      <c r="O29" t="s">
+        <v>102</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" t="s">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>239</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>247</v>
+      </c>
+      <c r="J31" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" t="s">
+        <v>250</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>251</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" t="s">
+        <v>254</v>
+      </c>
+      <c r="K32" t="s">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s">
+        <v>256</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>257</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>258</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>259</v>
+      </c>
+      <c r="J33" t="s">
+        <v>260</v>
+      </c>
+      <c r="K33" t="s">
+        <v>261</v>
+      </c>
+      <c r="L33" t="s">
+        <v>262</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>263</v>
+      </c>
+      <c r="O33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>265</v>
+      </c>
+      <c r="J34" t="s">
+        <v>266</v>
+      </c>
+      <c r="K34" t="s">
+        <v>267</v>
+      </c>
+      <c r="L34" t="s">
+        <v>268</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>263</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" t="s">
+        <v>271</v>
+      </c>
+      <c r="K35" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" t="s">
+        <v>273</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>274</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>276</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>277</v>
+      </c>
+      <c r="J36" t="s">
+        <v>278</v>
+      </c>
+      <c r="K36" t="s">
+        <v>279</v>
+      </c>
+      <c r="L36" t="s">
+        <v>280</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>274</v>
+      </c>
+      <c r="O36" t="s">
+        <v>120</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>281</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>282</v>
+      </c>
+      <c r="J37" t="s">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s">
+        <v>284</v>
+      </c>
+      <c r="L37" t="s">
+        <v>285</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>286</v>
+      </c>
+      <c r="O37" t="s">
+        <v>102</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>288</v>
+      </c>
+      <c r="J38" t="s">
+        <v>289</v>
+      </c>
+      <c r="K38" t="s">
+        <v>290</v>
+      </c>
+      <c r="L38" t="s">
+        <v>291</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>292</v>
+      </c>
+      <c r="O38" t="s">
+        <v>102</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>294</v>
+      </c>
+      <c r="J39" t="s">
+        <v>295</v>
+      </c>
+      <c r="K39" t="s">
+        <v>296</v>
+      </c>
+      <c r="L39" t="s">
+        <v>297</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>298</v>
+      </c>
+      <c r="O39" t="s">
+        <v>102</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>300</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>301</v>
+      </c>
+      <c r="J40" t="s">
+        <v>302</v>
+      </c>
+      <c r="K40" t="s">
+        <v>303</v>
+      </c>
+      <c r="L40" t="s">
+        <v>304</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>305</v>
+      </c>
+      <c r="O40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>306</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>307</v>
+      </c>
+      <c r="J41" t="s">
+        <v>308</v>
+      </c>
+      <c r="K41" t="s">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s">
+        <v>310</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>305</v>
+      </c>
+      <c r="O41" t="s">
+        <v>102</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>311</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>312</v>
+      </c>
+      <c r="J42" t="s">
+        <v>313</v>
+      </c>
+      <c r="K42" t="s">
+        <v>314</v>
+      </c>
+      <c r="L42" t="s">
+        <v>315</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>316</v>
+      </c>
+      <c r="O42" t="s">
+        <v>102</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>317</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>318</v>
+      </c>
+      <c r="J43" t="s">
+        <v>319</v>
+      </c>
+      <c r="K43" t="s">
+        <v>320</v>
+      </c>
+      <c r="L43" t="s">
+        <v>321</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>322</v>
+      </c>
+      <c r="O43" t="s">
+        <v>102</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>323</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>324</v>
+      </c>
+      <c r="J44" t="s">
+        <v>325</v>
+      </c>
+      <c r="K44" t="s">
+        <v>326</v>
+      </c>
+      <c r="L44" t="s">
+        <v>327</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>328</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>329</v>
+      </c>
+      <c r="J45" t="s">
+        <v>330</v>
+      </c>
+      <c r="K45" t="s">
+        <v>331</v>
+      </c>
+      <c r="L45" t="s">
+        <v>332</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>333</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>335</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>336</v>
+      </c>
+      <c r="J46" t="s">
+        <v>337</v>
+      </c>
+      <c r="K46" t="s">
+        <v>338</v>
+      </c>
+      <c r="L46" t="s">
+        <v>339</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>333</v>
+      </c>
+      <c r="O46" t="s">
+        <v>120</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>340</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>341</v>
+      </c>
+      <c r="J47" t="s">
+        <v>342</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>343</v>
+      </c>
+      <c r="O47" t="s">
+        <v>120</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>344</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>345</v>
+      </c>
+      <c r="J48" t="s">
+        <v>346</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>343</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>347</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>348</v>
+      </c>
+      <c r="J49" t="s">
+        <v>349</v>
+      </c>
+      <c r="K49" t="s">
+        <v>350</v>
+      </c>
+      <c r="L49" t="s">
+        <v>351</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>352</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>354</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>355</v>
+      </c>
+      <c r="J50" t="s">
+        <v>356</v>
+      </c>
+      <c r="K50" t="s">
+        <v>357</v>
+      </c>
+      <c r="L50" t="s">
+        <v>358</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>352</v>
+      </c>
+      <c r="O50" t="s">
+        <v>102</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>359</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>360</v>
+      </c>
+      <c r="J51" t="s">
+        <v>361</v>
+      </c>
+      <c r="K51" t="s">
+        <v>362</v>
+      </c>
+      <c r="L51" t="s">
+        <v>363</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>364</v>
+      </c>
+      <c r="O51" t="s">
+        <v>102</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>365</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>366</v>
+      </c>
+      <c r="J52" t="s">
+        <v>367</v>
+      </c>
+      <c r="K52" t="s">
+        <v>368</v>
+      </c>
+      <c r="L52" t="s">
+        <v>369</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>370</v>
+      </c>
+      <c r="O52" t="s">
+        <v>102</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>371</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>372</v>
+      </c>
+      <c r="J53" t="s">
+        <v>373</v>
+      </c>
+      <c r="K53" t="s">
+        <v>374</v>
+      </c>
+      <c r="L53" t="s">
+        <v>375</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>376</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>377</v>
+      </c>
+      <c r="J54" t="s">
+        <v>378</v>
+      </c>
+      <c r="K54" t="s">
+        <v>232</v>
+      </c>
+      <c r="L54" t="s">
+        <v>379</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>380</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>381</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>382</v>
+      </c>
+      <c r="J55" t="s">
+        <v>383</v>
+      </c>
+      <c r="K55" t="s">
+        <v>384</v>
+      </c>
+      <c r="L55" t="s">
+        <v>385</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>386</v>
+      </c>
+      <c r="O55" t="s">
+        <v>102</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>387</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>388</v>
+      </c>
+      <c r="J56" t="s">
+        <v>389</v>
+      </c>
+      <c r="K56" t="s">
+        <v>390</v>
+      </c>
+      <c r="L56" t="s">
+        <v>391</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>392</v>
+      </c>
+      <c r="O56" t="s">
+        <v>120</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>393</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>394</v>
+      </c>
+      <c r="J57" t="s">
+        <v>395</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>392</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>396</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>397</v>
+      </c>
+      <c r="J58" t="s">
+        <v>398</v>
+      </c>
+      <c r="K58" t="s">
+        <v>399</v>
+      </c>
+      <c r="L58" t="s">
+        <v>400</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>401</v>
+      </c>
+      <c r="O58" t="s">
+        <v>102</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>402</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>403</v>
+      </c>
+      <c r="J59" t="s">
+        <v>404</v>
+      </c>
+      <c r="K59" t="s">
+        <v>405</v>
+      </c>
+      <c r="L59" t="s">
+        <v>406</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>401</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>407</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>408</v>
+      </c>
+      <c r="J60" t="s">
+        <v>409</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s">
+        <v>109</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>401</v>
+      </c>
+      <c r="O60" t="s">
+        <v>120</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>410</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>411</v>
+      </c>
+      <c r="J61" t="s">
+        <v>412</v>
+      </c>
+      <c r="K61" t="s">
+        <v>413</v>
+      </c>
+      <c r="L61" t="s">
+        <v>414</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>415</v>
+      </c>
+      <c r="O61" t="s">
+        <v>120</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>417</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>418</v>
+      </c>
+      <c r="J62" t="s">
+        <v>419</v>
+      </c>
+      <c r="K62" t="s">
+        <v>77</v>
+      </c>
+      <c r="L62" t="s">
+        <v>420</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>415</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>422</v>
+      </c>
+      <c r="J63" t="s">
+        <v>423</v>
+      </c>
+      <c r="K63" t="s">
+        <v>424</v>
+      </c>
+      <c r="L63" t="s">
+        <v>425</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>426</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>427</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>428</v>
+      </c>
+      <c r="J64" t="s">
+        <v>429</v>
+      </c>
+      <c r="K64" t="s">
+        <v>430</v>
+      </c>
+      <c r="L64" t="s">
+        <v>431</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>432</v>
+      </c>
+      <c r="O64" t="s">
+        <v>120</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>433</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>434</v>
+      </c>
+      <c r="J65" t="s">
+        <v>435</v>
+      </c>
+      <c r="K65" t="s">
+        <v>436</v>
+      </c>
+      <c r="L65" t="s">
+        <v>437</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>438</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>439</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>440</v>
+      </c>
+      <c r="J66" t="s">
+        <v>441</v>
+      </c>
+      <c r="K66" t="s">
+        <v>442</v>
+      </c>
+      <c r="L66" t="s">
+        <v>443</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>444</v>
+      </c>
+      <c r="O66" t="s">
+        <v>102</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>446</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>447</v>
+      </c>
+      <c r="J67" t="s">
+        <v>448</v>
+      </c>
+      <c r="K67" t="s">
+        <v>449</v>
+      </c>
+      <c r="L67" t="s">
+        <v>450</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>444</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>451</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>452</v>
+      </c>
+      <c r="J68" t="s">
+        <v>453</v>
+      </c>
+      <c r="K68" t="s">
+        <v>454</v>
+      </c>
+      <c r="L68" t="s">
+        <v>455</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>456</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J69" t="s">
+        <v>458</v>
+      </c>
+      <c r="K69" t="s">
+        <v>459</v>
+      </c>
+      <c r="L69" t="s">
+        <v>460</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>461</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>463</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>464</v>
+      </c>
+      <c r="J70" t="s">
+        <v>465</v>
+      </c>
+      <c r="K70" t="s">
+        <v>466</v>
+      </c>
+      <c r="L70" t="s">
+        <v>467</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>468</v>
+      </c>
+      <c r="O70" t="s">
+        <v>102</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>470</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>471</v>
+      </c>
+      <c r="J71" t="s">
+        <v>472</v>
+      </c>
+      <c r="K71" t="s">
+        <v>473</v>
+      </c>
+      <c r="L71" t="s">
+        <v>474</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>475</v>
+      </c>
+      <c r="O71" t="s">
+        <v>102</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>477</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>478</v>
+      </c>
+      <c r="J72" t="s">
+        <v>479</v>
+      </c>
+      <c r="K72" t="s">
+        <v>480</v>
+      </c>
+      <c r="L72" t="s">
+        <v>481</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>482</v>
+      </c>
+      <c r="O72" t="s">
+        <v>102</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>483</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>484</v>
+      </c>
+      <c r="J73" t="s">
+        <v>485</v>
+      </c>
+      <c r="K73" t="s">
+        <v>486</v>
+      </c>
+      <c r="L73" t="s">
+        <v>487</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>488</v>
+      </c>
+      <c r="O73" t="s">
+        <v>102</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>490</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>491</v>
+      </c>
+      <c r="J74" t="s">
+        <v>492</v>
+      </c>
+      <c r="K74" t="s">
+        <v>493</v>
+      </c>
+      <c r="L74" t="s">
+        <v>494</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>495</v>
+      </c>
+      <c r="O74" t="s">
+        <v>102</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>497</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>498</v>
+      </c>
+      <c r="J75" t="s">
+        <v>499</v>
+      </c>
+      <c r="K75" t="s">
+        <v>500</v>
+      </c>
+      <c r="L75" t="s">
+        <v>501</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>502</v>
+      </c>
+      <c r="O75" t="s">
+        <v>228</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_439.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_439.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="795">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,39 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r607236902-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1218737</t>
+  </si>
+  <si>
+    <t>607236902</t>
+  </si>
+  <si>
+    <t>08/16/2018</t>
+  </si>
+  <si>
+    <t>Great stay at LaQuinta</t>
+  </si>
+  <si>
+    <t>I had a great stay! I was in residence for a while, so I was able to meet a lot of the staff and was treated very kind. My room was in excellent order, The continental breakfast had hot and cold items.  Coffee was excellent! For the most part it was quiet with comfortable accommodations. I even visited the gym. Great focused workout. There was even a guest laundry mat. I wanted to use the hot tub is was out of order this trip.   The staff was so kind, especially making sure if I needed service.  I would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r597484842-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>1218737</t>
-  </si>
-  <si>
     <t>597484842</t>
   </si>
   <si>
@@ -180,15 +201,33 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Management response:Responded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>Management response:Responded July 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2018</t>
   </si>
   <si>
     <t>Didn't have any issues with the room or the service. Nice room for the price. The hotel was exactly what we were looking for. Bathroom and Room were clean. There was even a working microwave and small refrigerator.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r597638627-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>597638627</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>Breakfast could have been more on point.</t>
+  </si>
+  <si>
+    <t>The employees seemed to be more involved with having personal conversation then actually focusing on making sure the breakfast line was refilled / stocked and cleaned as the guest were waiting for more bacon or whatever to go with the eggs. For the price more attention needed .Also the parking spots are very tight and on Friday night parking was full and had 5 spots  being used by construction vehicles I felt that those spaces used by construction vehicles could have been left for the paying guests firstMoreShow less</t>
+  </si>
+  <si>
+    <t>The employees seemed to be more involved with having personal conversation then actually focusing on making sure the breakfast line was refilled / stocked and cleaned as the guest were waiting for more bacon or whatever to go with the eggs. For the price more attention needed .Also the parking spots are very tight and on Friday night parking was full and had 5 spots  being used by construction vehicles I felt that those spaces used by construction vehicles could have been left for the paying guests firstMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r597304538-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -201,9 +240,6 @@
     <t>Great experience! Just one thing....the white curtain in our room could not close causing continuous night and morning light from outside to shine in the room. Need darker curtain or different design that will allow curtains to close. Everything else was outstanding!!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Great experience! Just one thing....the white curtain in our room could not close causing continuous night and morning light from outside to shine in the room. Need darker curtain or different design that will allow curtains to close. Everything else was outstanding!!More</t>
   </si>
   <si>
@@ -222,6 +258,75 @@
     <t>We've never have had this type of bad experience during breakfast at a hotel before. Hotels usually have someone at the dinning area making sure the area is clean and that there is plenty of food and drinks out.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r596812362-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>596812362</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Last minute stay</t>
+  </si>
+  <si>
+    <t>My  mom and I arrived in Houston a day earlier than we had planned.  We were unable to check into our main hotel so we decided to find somewhere on the outskirts of Houston.We researched and she the La Quinta using bookit.com, but did not pay attention to the pre-populated date due to us booking after 7 pm.  However, the hotel staff was very helpful in helping us cancel that booking and finding us a double room.  It was handicap room, but we were tired and grateful.The room was very nice.  They have recently painted and the hotel is going through some other renovations as well.  I won't speak on the size of the bathroom, as it was a room for someone with disabilities.  But the room and bathroom were both clean, the bed was very comfortable and the air conditioner worked great.The only issue I did have with the room was the bed cover.  It was super thin.  I know it gets hot in Texas, but it did not feel like we had anything other than a flat sheet on the bed.  But the mattress being comfortable made up for that.The complimentary breakfast was also great.  Anytime you have a waffle iron to make your own Belgium waffle, it is always a plus.If I ever visit this area again, I would consider staying at this hotel property again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My  mom and I arrived in Houston a day earlier than we had planned.  We were unable to check into our main hotel so we decided to find somewhere on the outskirts of Houston.We researched and she the La Quinta using bookit.com, but did not pay attention to the pre-populated date due to us booking after 7 pm.  However, the hotel staff was very helpful in helping us cancel that booking and finding us a double room.  It was handicap room, but we were tired and grateful.The room was very nice.  They have recently painted and the hotel is going through some other renovations as well.  I won't speak on the size of the bathroom, as it was a room for someone with disabilities.  But the room and bathroom were both clean, the bed was very comfortable and the air conditioner worked great.The only issue I did have with the room was the bed cover.  It was super thin.  I know it gets hot in Texas, but it did not feel like we had anything other than a flat sheet on the bed.  But the mattress being comfortable made up for that.The complimentary breakfast was also great.  Anytime you have a waffle iron to make your own Belgium waffle, it is always a plus.If I ever visit this area again, I would consider staying at this hotel property again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r587322569-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>587322569</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Awesome Experience!</t>
+  </si>
+  <si>
+    <t>We were amazed, surprised and very satisfied with our recent stays on two separate occasions. Even though the exterior of the hotel is under renovations, the inside, the staff (Mr Jacob) at the front desk and the provisions were impeccable. We will make a trip back to Houston to stay at this hotel. If you go ask to get room 223 - it has a wonderful A/C and the bed is comfy. They also give senior citizens discounts - book early.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2018</t>
+  </si>
+  <si>
+    <t>We were amazed, surprised and very satisfied with our recent stays on two separate occasions. Even though the exterior of the hotel is under renovations, the inside, the staff (Mr Jacob) at the front desk and the provisions were impeccable. We will make a trip back to Houston to stay at this hotel. If you go ask to get room 223 - it has a wonderful A/C and the bed is comfy. They also give senior citizens discounts - book early.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r586703319-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>586703319</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>BEST LA QUINTA IN HOUSTON TX!</t>
+  </si>
+  <si>
+    <t>Friendly staff. HOT BREAKFAST!!! Coffee available 24 hours. Complementary cookies are available at the front desk in the afternoon. Clean spacious rooms. Complementary WiFi. Nonsmoking indoor property. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Friendly staff. HOT BREAKFAST!!! Coffee available 24 hours. Complementary cookies are available at the front desk in the afternoon. Clean spacious rooms. Complementary WiFi. Nonsmoking indoor property. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r583916827-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -279,6 +384,63 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r548521097-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548521097</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Roaches</t>
+  </si>
+  <si>
+    <t>Unfortunately, my experience there was not a good one. When I got to the hotel lobby, it was awesome, just like the pictures online, but when I walked into the room, the first thing I saw was empty roach bomb cans left out on the tables and all the doors and drawers were open. I guess they forgot they sprayed the room.  For what it's worth, they didn't get them all...I'll spare you the gross details. I know I should've left, but I was tired and thought I'd just deal with it. The furniture, carpet, and paint in the room were old and worn out...not at all like the online pictures. The walls appeared unclean due to stains and numerous spider webs at the ceiling corners. The desk chair was broken and wouldn't stay elevated. Every time the a/c came on, I smelled vinegar for some reason.  The staff was friendly though...no issue with them at all.  Unfortunately, I won't be staying there again, and can't recommend that anyone else stay there either. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2017</t>
+  </si>
+  <si>
+    <t>Unfortunately, my experience there was not a good one. When I got to the hotel lobby, it was awesome, just like the pictures online, but when I walked into the room, the first thing I saw was empty roach bomb cans left out on the tables and all the doors and drawers were open. I guess they forgot they sprayed the room.  For what it's worth, they didn't get them all...I'll spare you the gross details. I know I should've left, but I was tired and thought I'd just deal with it. The furniture, carpet, and paint in the room were old and worn out...not at all like the online pictures. The walls appeared unclean due to stains and numerous spider webs at the ceiling corners. The desk chair was broken and wouldn't stay elevated. Every time the a/c came on, I smelled vinegar for some reason.  The staff was friendly though...no issue with them at all.  Unfortunately, I won't be staying there again, and can't recommend that anyone else stay there either. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r539094942-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539094942</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r534207022-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -324,9 +486,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Management response:Responded September 25, 2017</t>
   </si>
   <si>
@@ -345,9 +504,6 @@
     <t>08/25/2017</t>
   </si>
   <si>
-    <t>MoreShow less</t>
-  </si>
-  <si>
     <t>August 2017</t>
   </si>
   <si>
@@ -357,7 +513,43 @@
     <t>Responded August 31, 2017</t>
   </si>
   <si>
-    <t>More</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r516890317-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516890317</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Excellent staff</t>
+  </si>
+  <si>
+    <t>I would like to thank everyone on the staff, the front desk, the maintenance  man , the maids , the ladies that attend the breakfast, all were very awesome and made our stay very comfortable and great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r516168753-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516168753</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Room &amp; Desk Staff Were Great- Housekeeping, not so much.</t>
+  </si>
+  <si>
+    <t>Front desk staff were very good- both night and morning at checkout. The room was fine &amp; had the usual amenities (although it could use a charger on at least 1 nightstand), but when you get to your room at 2:30 am and have a "do not disturb" card on the door, it's really annoying to have housekeeping decide they want you up by vacuuming right outside you room and accidentally banging in to it a few times. As you can see, that kind of ruined the whole experience. Btw, I did not have a late checkout- this happened around 10:30am (which was 8:30 for me due to time zone change).MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Front desk staff were very good- both night and morning at checkout. The room was fine &amp; had the usual amenities (although it could use a charger on at least 1 nightstand), but when you get to your room at 2:30 am and have a "do not disturb" card on the door, it's really annoying to have housekeeping decide they want you up by vacuuming right outside you room and accidentally banging in to it a few times. As you can see, that kind of ruined the whole experience. Btw, I did not have a late checkout- this happened around 10:30am (which was 8:30 for me due to time zone change).More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r505253094-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
@@ -423,6 +615,39 @@
     <t>While traveling cross country we stayed in nothing but La Quinta Hotels and this is one of the best.  Very clean and the newer ones withouth exterior entries.  We were very comfortable and had a great night's sleep on their VERY comfortable beds...and I am very sensitive to bad hotel beds!  We would stay there again!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r492645528-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492645528</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Twins Bday</t>
+  </si>
+  <si>
+    <t>We've stayed at this hotel several times in the past. It's at a great location, wonderful staff, great rooms, good breakfast to get your day started right, and a quick direction to the freeway. Keep up the excellent work.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r489404846-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489404846</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r479131348-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -492,6 +717,45 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r471559229-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471559229</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Clean room and relatively safe</t>
+  </si>
+  <si>
+    <t>The neighborhood is a bit rough but I felt better when I saw that there was a security guard walking the parking lot.  I don't know if he was there all night though.  Rooms were quiet and clean.  Wifi wasn't strong after 9 pm but cable channels were robust.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r469766441-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469766441</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Hot tub broken for at least a week</t>
+  </si>
+  <si>
+    <t>Breakfast and room was fine; value was OK.  Another guest said the hot tub had been out of order for a week and the person at the desk seemed to indicate that an order to get it fixed was not yet done.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Breakfast and room was fine; value was OK.  Another guest said the hot tub had been out of order for a week and the person at the desk seemed to indicate that an order to get it fixed was not yet done.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r465978966-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -546,12 +810,57 @@
     <t>02/17/2017</t>
   </si>
   <si>
+    <t>Love LaQuinta</t>
+  </si>
+  <si>
+    <t>Love LaQuinta but not the location in Houston on Normandy Street - very aged, smelled very bad and I would not even walk without shoes. I can see they tried to make room OK but the smell was so bad I could not sleep.MoreShow less</t>
+  </si>
+  <si>
     <t>Management response:Responded February 22, 2017</t>
   </si>
   <si>
     <t>Responded February 22, 2017</t>
   </si>
   <si>
+    <t>Love LaQuinta but not the location in Houston on Normandy Street - very aged, smelled very bad and I would not even walk without shoes. I can see they tried to make room OK but the smell was so bad I could not sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r456832183-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>456832183</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>Clean &amp; Comfortable Inn</t>
+  </si>
+  <si>
+    <t>I have stayed at this property each of the last four years.  The location is great, just off of I-10 in Houston.The rooms are very clean and quiet.  The staff are helpful and I would recommend this hotel to travelers.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r436291095-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436291095</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Close enough, but far enough away!</t>
+  </si>
+  <si>
+    <t>Hotel was clean with friendly staff. Breakfast was better than average. It is close enough to Downtown for easy access, but for enough away to be out the of Downtown atmosphere. Lots of excellent resteraunts nearby.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r436290797-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -615,6 +924,42 @@
     <t>overall a good hotel to stay at. the staff is very friendly and the rooms are kept clean. breakfast could be better and the tables could be turned around quicker however overall it is a good hotel to stay at. we did not get to use the pool however it appeared to be kept clean as well. the location is ideally located close to the freeways so getting to and from the location is fairly easy    &amp; there are multiple fast food restaurants and a gas station near by.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r404395977-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>404395977</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>efficient</t>
+  </si>
+  <si>
+    <t>Quick, easy check in/check out.  Hotel is t a very good location near shopping with easy access to I-10.  It was very easy to find.  LQ is one of the best places to stay for a short 1-2 night stay and usually has the best rates for what you get.  The microwave &amp; frig is a nice amenity to have if you do not have time to go out to eat or are on a shoe-string budget.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r382857762-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382857762</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Looks Nice But Smells Terrible</t>
+  </si>
+  <si>
+    <t>The hotel has a nice ambience to it with nice lobby and updated fixtures. But there is a terrible stench upon walking at the hallway. Smells like cigarette smoke and some chemicals.King sized bedroom is average with one couch and one computer chair. Bathroom is average sized. Bed is comfortable and we did not hear anybody from either side of the room.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r368035897-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -666,6 +1011,36 @@
     <t>Very Nice!  Room was super clean and large. The bathroom was updated, and the water pressure for the shower was great!  The bed was comfortable and had a blanket and a duvet. I like to keep the room cold, and the A/C did not disappoint. Wasn't loud and you couldn't really hear it kick on and off. We were just around the corner from the elevator however never heard anything outside of the room. No elevator, no doors slamming, no people. I highly recommend this hotel.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r357394629-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357394629</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Clean and comfy</t>
+  </si>
+  <si>
+    <t>All the staff at this hotel was nice. The hotel was in the right place for our needs, with a lot of good restaurants near by. The room and the shower were modern, very nice and clean. We enjoyed the breakfast - my family says it was the best breakfast from all the La Quintas we have visited. Highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r357114076-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357114076</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>GREAT</t>
+  </si>
+  <si>
+    <t>We checked in March 18th the young lady that was working the evening shift was great. She made us feel right at home even when we hung out in the lobby area. Our room was clean and ready once we arrived. Over all we had a great 2 night stay. Oh and the breakfast is the Best many things to choose from. When in Houston I will definitely stay here again all the staff at this property are Great and very nice.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r335152272-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -702,9 +1077,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r327646224-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -720,6 +1092,45 @@
     <t>My wife and daughter traveled to Houston for a concert and picked this hotel to stay because of its location to Highway. GREAT choice.  Safe, clean, great breakfast. If we are in Houston again it will definitely be our 1st choice!!  The beds were extremely comfortable!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r323773561-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323773561</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Average Hotel</t>
+  </si>
+  <si>
+    <t>I had no problem checking in despite the fact that I arrived late at the hotel-about 10PM. The room was clean but the floor had some sticky spots. Fortunately I had my flip flops with me. The parking was a little tight but there were a few spots open when I arrived. The parking lot had a security guard out all night with his car flashing its overhead lights continuously. This is a rough neighborhood which I do not recommend unless you have business here, which unfortunately I did. The breakfast was ok, but the attendants had scowls on their faces. I asked to be woken up. I never received the call. Fortunately I woke up in time to shower, quickly eat breakfast, and leave to meet someone concerning a work-related matter.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>I had no problem checking in despite the fact that I arrived late at the hotel-about 10PM. The room was clean but the floor had some sticky spots. Fortunately I had my flip flops with me. The parking was a little tight but there were a few spots open when I arrived. The parking lot had a security guard out all night with his car flashing its overhead lights continuously. This is a rough neighborhood which I do not recommend unless you have business here, which unfortunately I did. The breakfast was ok, but the attendants had scowls on their faces. I asked to be woken up. I never received the call. Fortunately I woke up in time to shower, quickly eat breakfast, and leave to meet someone concerning a work-related matter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r299744805-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299744805</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Friendly</t>
+  </si>
+  <si>
+    <t>I travel with my 70 pound dog a lot and La Quinta hotels are always accommodating and dont charge extra for her. The check in at this hotel was fast and friendly. The bed was very comfortable. The breakfast was good with several choices. If I was ever traveling through Houston again I would stay here again.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r301715359-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -735,9 +1146,6 @@
     <t>This hotel is very nice clean and comfortable. The service is great, and its close to my work/service contract locations. I am a frequent sleeper at this hotel. I like it, and they serve warm cookies after 6pm.</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r298141864-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -774,6 +1182,36 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r294294194-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294294194</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable</t>
+  </si>
+  <si>
+    <t>The hotel was clean and comfortable with plenty of space for our family's stay during a recent softball tournament.  There were two stray, sickly-looking pit bulls walking around the property, but overall, everything else was good, considering the area probably isn't the best in town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r291327634-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>291327634</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Fantastic experience!</t>
+  </si>
+  <si>
+    <t>My experience here was great from the moment I walked in. The clerk was very thorough and polite. The lobby is stunning and the eating area is just as beautiful. We reserved the double king room and it was SUPER spacious! Everything worked great and the room was nice and cold! At breakfast, we went down to eat and were happy to see so many selections! Coffee, OJ, apple juice, fruit juice, toast, bagels, waffles, cereal, fruit, eggs, potatoes, sausage, biscuits and gravy, pastries and all the condiments you can think of!  It was phenomenal!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r289730602-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -825,6 +1263,42 @@
     <t>Stayed two nights. Room wasn't the cleanest. Well used furniture and small stains on the walls and chairs. Items on the carpet. The rest of the room was good.  Everything worked and had no issues. Front Desk staff was nice but not offering much else.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r271341785-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271341785</t>
+  </si>
+  <si>
+    <t>05/11/2015</t>
+  </si>
+  <si>
+    <t>A Great Weekend!!!....</t>
+  </si>
+  <si>
+    <t>We decided to stay at this hotel because it was close to family and we went to Houston to celebrate a birthday and anniversary.  I can agree that the hotel is not in the best area but I never felt that my or my family's security was at risk.  The hotel staff was nice and friendly. The hotel appearance was very nice, we all loved the rooms.  We actually stayed on the 2nd floor and there was no smell in the hallway or the rooms as stated in previous reviews.  The kids enjoyed the pool.  It was smaller than what we have seen at other hotels but it worked.  The hot breakfast was great.  It had a variety of items to eat for all the picky eaters in my family.  We would definitely stay here again if we return to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>We decided to stay at this hotel because it was close to family and we went to Houston to celebrate a birthday and anniversary.  I can agree that the hotel is not in the best area but I never felt that my or my family's security was at risk.  The hotel staff was nice and friendly. The hotel appearance was very nice, we all loved the rooms.  We actually stayed on the 2nd floor and there was no smell in the hallway or the rooms as stated in previous reviews.  The kids enjoyed the pool.  It was smaller than what we have seen at other hotels but it worked.  The hot breakfast was great.  It had a variety of items to eat for all the picky eaters in my family.  We would definitely stay here again if we return to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r270687445-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270687445</t>
+  </si>
+  <si>
+    <t>05/01/2015</t>
+  </si>
+  <si>
+    <t>our stay at the Normandy La Quinta</t>
+  </si>
+  <si>
+    <t>Nice location, close to the freeway.  The lay out of the parking lot and entrance to the La Quinta was very well thought out and gave us a feeling of security.  Nice room and very helpful staff. The location is close to the city of Houston and from I 10 access to many restaurants is easy to access.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r262518601-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -879,6 +1353,42 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r250102285-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250102285</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>A Letdown After Other LaQuinta's</t>
+  </si>
+  <si>
+    <t>My husband and I are driving a loop from New Jersey to Florida, Texas, north through Memphis, Cincinnati, Pennsylvania then home. We travel with our small dog. I use bringfido.com to book because the hotel realizes we have a dog when our booking comes through. From the bringfido hotel list I choose LaQuinta hotels 90% of the time. This one is a disappointment from the wonderful experience at La Quinta in Pooler, GA and Mobile, AL. We were assigned room 124. Furniture is scratched, bed lampshade has punctures, wobbly refrigerator, wrinkled dust ruffle, no liners in trash buckets. Staff was not attentive when I walked in 6:45 pm. Waited for someone to realize I was there. Had to give a, "Hello?". I spent about $50 more for this LaQuinta because I thought it would be better than LaQuinta in Winnie, Texas, which doesn't appear to have a refrigerator and microwave in rooms. I need both for my dog's food prep. Again, for the money I thought the hotel would be in a more upscale area. Best I can say is it's close to Route 10. Next trip I will drive further or stay at another hotel chain.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>My husband and I are driving a loop from New Jersey to Florida, Texas, north through Memphis, Cincinnati, Pennsylvania then home. We travel with our small dog. I use bringfido.com to book because the hotel realizes we have a dog when our booking comes through. From the bringfido hotel list I choose LaQuinta hotels 90% of the time. This one is a disappointment from the wonderful experience at La Quinta in Pooler, GA and Mobile, AL. We were assigned room 124. Furniture is scratched, bed lampshade has punctures, wobbly refrigerator, wrinkled dust ruffle, no liners in trash buckets. Staff was not attentive when I walked in 6:45 pm. Waited for someone to realize I was there. Had to give a, "Hello?". I spent about $50 more for this LaQuinta because I thought it would be better than LaQuinta in Winnie, Texas, which doesn't appear to have a refrigerator and microwave in rooms. I need both for my dog's food prep. Again, for the money I thought the hotel would be in a more upscale area. Best I can say is it's close to Route 10. Next trip I will drive further or stay at another hotel chain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r248182908-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>248182908</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>Good hotel, not best area, but acceptable</t>
+  </si>
+  <si>
+    <t>The hotel is remodeled and is very good. Rooms are clean and comfortable, the breakfast room is good and the variety at b-fast was good as well. The only thing, not the best area. I like walking outdoors, but not around here at night time. Also, no restaurants within walking distance or really close by. I chose this hotel though for the location of where i was working, the cost and the newness of the hotel. I'd stay here again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r247518222-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -894,9 +1404,6 @@
     <t>Hotel is well maintained.  Staff are efficient.  Rooms are clean and generally in good repair.  A little too pricey for what you get.  Back yard of hotel looks like a tornado hit it, so get a room that faces front.</t>
   </si>
   <si>
-    <t>January 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r245052184-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -936,15 +1443,42 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r237216476-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237216476</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>room smelled</t>
+  </si>
+  <si>
+    <t>The entire 2nd floor smelled.  My room smelled like old musty moldy room. They changed my room, still on 2nd floor- it smelled but not as bad.  I had folks traveling with me on the 1st and 3rd floors they did not have this problem.  The location is not the best but was convenient for my purposes.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r235988231-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235988231</t>
+  </si>
+  <si>
+    <t>10/23/2014</t>
+  </si>
+  <si>
+    <t>Business Stay Not Nice</t>
+  </si>
+  <si>
+    <t>The staff was not friendly at check in and check out.  Fitness center was nice but no one told me I needed a key to use equipment.  Room request was for upper floor and not only did I get placed on a lower floor.  My room was next to a loud family with several children. Nice clean room but do not stay if you need friendly staff and a quiet place to work.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r237216041-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
     <t>237216041</t>
   </si>
   <si>
-    <t>10/23/2014</t>
-  </si>
-  <si>
     <t>Customer Satisfaction</t>
   </si>
   <si>
@@ -987,6 +1521,33 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r226564786-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226564786</t>
+  </si>
+  <si>
+    <t>Kids working</t>
+  </si>
+  <si>
+    <t>Kids from staff were working while they waited for their mothers.  Kids were running behind the check in counter and sitting in the halls while their mothers cleaned the room. Staff did not let us check in until 3pm.  We got their around 2:10pm and were told no rooms were available.  There was a mad rush to the counter from all guest that were waiting on rooms.  Funny thing is my room was the first room on the first floor by the lobby.  There was no maid in that area to clean that room.  Bottom line they wanted us to wait until 3pm to check in.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r225753875-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>225753875</t>
+  </si>
+  <si>
+    <t>08/31/2014</t>
+  </si>
+  <si>
+    <t>Ok for one night</t>
+  </si>
+  <si>
+    <t>The hotel was clean but a strange smell was in the hallway.  Our sink was very slow to drain and our room phone was broken in a way that made the dial tone constantly be heard. Other than that it was a nice stay. Hotel wasent in best part of town but the property has a security guard on at night.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r219504903-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -1036,6 +1597,39 @@
   </si>
   <si>
     <t>I had a great experience.  I was a little concerned about the location as I had seen other reviews noting the hotel was near a not-so-great part of town.  I had no issues or concerns about this once I arrived.  There is plenty of parking right in front of the hotel and a security guard was on duty.  Check in and out was quick and easy.  The room was clean and comfortable, and the breakfast was pretty good.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r211788604-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211788604</t>
+  </si>
+  <si>
+    <t>06/23/2014</t>
+  </si>
+  <si>
+    <t>A good place to stay</t>
+  </si>
+  <si>
+    <t>very close to interstate, good location to downtown Houston and IAH, friendly staff, nice pool and hot tub, big rooms and excellent Wifi, pet-friendly, restaurants close-by, the braekfast had a very wide variety</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r210112636-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210112636</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Satisfied Customer</t>
+  </si>
+  <si>
+    <t>Staff is accommodating, room is quite &amp; clean.  Great location for our needs.  Good value for room.  Breakfast is just right.  Location is ideal for our needs.  The bed is comfortable, bedding could use an update with lightweight down comforter and down pillows.  We bring our own if we're driving.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r209335154-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
@@ -1084,6 +1678,30 @@
 No I know some might say I was jumping to conclusions, but spend a lifetime living in the inner city, and you know when someone is up to no good. So after seeing the same behaviour, I go the the manager and lodge my concerns. Nothing comes of that. So...This is the first BAD review I had to write of any of my stays for sometime. Especially a LaQuinta as they are the hotel of choice for me and my family. I've always appreciated the value in LaQuinta's for my short stay vacations. We are a family of 4, two adults, two teens and the family dog. The price was always good, the services most great, and rooms/amenities more than acceptable for the price. But this particular La Quinta was the exception to the rule. Check-in was fast and service with a smile. I like that no matter what the price. But shortly after unloading the tribe, my wife and daughter noted a thuggish logging man standing outside his room, just ogling them. At least until I appeared around the corner with a 90lb dog and large 14y/o son. Strike two comes within 3 minutes of closing the door, my daughter has to use the bathroom, and noted the toilet doesn't flush. So I call the front desk, and they did send the "maid" over to confirm its broken. Mr. thug all the while still standing outside his door.No I know some might say I was jumping to conclusions, but spend a lifetime living in the inner city, and you know when someone is up to no good. So after seeing the same behaviour, I go the the manager and lodge my concerns. Nothing comes of that. So back to my room to gather the folks before heading out to lunch, I decide to see if it's safe for my kids to use the swimming pool. It's down the hall past my room, through the external access door. While standing there for a couple minutes, guess who comes out with a buddy? Yup and trying to give me the stink eye. Sorry I don't scare easily, and not especially with a Texas CHL. Those from Texas knows what this is. But I spoke to them nicely, and head back inside. Unfortunately that little adventure just confirmed my suspicions, and I had the curtail the activities for the wife and kids to swim or go the the fitness room. I'm not looking for confrontation, but trying to avoid it at all cost. As a father though I will do whatever to protect my family. Thank God it didn't get worse. We left for a couple hours after that hoping the situation would resolve itself. Before leaving the desk clerk did try to sympathize and offer to move us to another room. I accepted and asked that it be ready on our return.True to their word La Quinta did move us. Though it took some convincing to the new desk clerk of what had been promised., Especially since the two knuckle heads where still lurking about. I was ready to dump my $109 and move to another hotel at my cost. She did move us to the second floor, and didn't hear any more from the shady fellows. However, as soon as we get to the new room and decide to order some pizza, we noted the phone cable was broken. I was able to patch it quickly, but they never fixed the issue. Happy to say this was just supposed to be a 1 day stay. If not I would have made it short due to all we experienced. I strong discourage using the location. Very sketchy neighborhood, sketchy people inside and outside the motel. There are better accommodations around, you just need to be a bit picky and chose wisely. Hope this helps someone from frustration.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r198263946-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198263946</t>
+  </si>
+  <si>
+    <t>03/22/2014</t>
+  </si>
+  <si>
+    <t>Great service and clean rooms</t>
+  </si>
+  <si>
+    <t>The service at this location was great. I came in real later that night and they kept my room ready! The hotel is situated in a difficult part of Houston, but from the inside you would never know. I felt safe and comfortable. The staff was nice and attentive. The hotel was clean and fresh. If given the opportunity, I would stay there agaun</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r198102234-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198102234</t>
+  </si>
+  <si>
+    <t>03/20/2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r197347644-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -1135,6 +1753,42 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r187938242-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187938242</t>
+  </si>
+  <si>
+    <t>12/17/2013</t>
+  </si>
+  <si>
+    <t>Hotel was Good; staff not so good</t>
+  </si>
+  <si>
+    <t>I usually stay at LQ for two reasons:  first they have the most comfortable beds I have ever slept on, the rooms are nicely furnished, clean and provide free internet.  The second reason is I travel with my two kitties and they are welcome at any LQ.   While I would rate this hotel and room as excellent, the staff was not very friendly.  Additionally, this hotel is not in the best part of town.  I would recommend another LQ in Houston or Katy.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r187517733-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187517733</t>
+  </si>
+  <si>
+    <t>12/09/2013</t>
+  </si>
+  <si>
+    <t>Great accommodations for price</t>
+  </si>
+  <si>
+    <t>Clean, nice looking, wonderful staff. I love it. Will be staying here again for sure. The bathroom is very nice with attractive vanity and storage underneath. Heating and air worked well and was controlled by temperature.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r186674811-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -1162,9 +1816,6 @@
     <t>All the staff at this hotel are there to help you...the breakfast spread is delicious and the accomodations are great!! I have nothing but great things to say about this hotel.  I stayed here in August 2013 and knew that I was going to stay there upon my return.  My sister lives nearbly and I see myself staying there every single time I go to Houston Texas.</t>
   </si>
   <si>
-    <t>November 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r180521996-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -1183,6 +1834,33 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r180322618-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180322618</t>
+  </si>
+  <si>
+    <t>10/09/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r167112733-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167112733</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Super nice!</t>
+  </si>
+  <si>
+    <t>Really nice rooms, clean, comfortable, great AC, very hot water, comfy beds. Very nice decor in rooms, lobby, and breakfast area. Front desk very nice and friendly. Can't say enough of this hotel. Was cheaper than some of the others. Would have expected to pay more for this nice of a room !!</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r164697334-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -1228,15 +1906,45 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r157954681-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157954681</t>
+  </si>
+  <si>
+    <t>04/16/2013</t>
+  </si>
+  <si>
+    <t>Very Comfortable</t>
+  </si>
+  <si>
+    <t>The staff at the hotel was so kind and helped out.  I needed a little larger room for work and they helped out as soon as they did.  By the end of the trip they knew me by first name.  I was so happy with the hotel and how clean and nice the staff was!</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r155100173-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155100173</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>Jewelry Stolen from Room</t>
+  </si>
+  <si>
+    <t>Be very careful with leaving jewelry in room including your luggage.  Stayed overnight and jewelry (earrings specifically) were taken from room as we had left room in morning.  The earrings were in a suitcase, in a travel container and were stolen.  Reported to front desk and said General Mgr. would call.  He never did but received call from Asst. Mgr. who just did not beleive me.  First time this has ever happened.  Beware and call police!  Customer is never right in this case.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r155063548-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
     <t>155063548</t>
   </si>
   <si>
-    <t>03/19/2013</t>
-  </si>
-  <si>
     <t>Best Bang For Your Buck!</t>
   </si>
   <si>
@@ -1273,15 +1981,42 @@
     <t>I did not stay here, BUT, traveling on 12/21 I got caught in 2.5 hour stopped traffic jam in Houston on my way to a La Quinta Inn, in Walker, LA.  It was dark, cold about 6:30 pm and needed to feed my 2 little dogs and find a car phone charger since I didn't know mine wasn't working until I got an alert message.I was going to stop at a roadside place, but traveling by myself (female, senior) was a bit nervous.So I pulled into this La Quinta, explained to the young lady behind the desk my dilemma.  She invited me to bring the dogs into the lobby and feed them there while my phone charged in one of their outlets. She also explained that car phone chargers are generally universal and I could get one at a bigger gas station and directed me to one.  She asked if I needed any help in feeding the dogs too.I believe here name was Sonya.She was aware of the traffic jam in either direction that afternoon/evening into/out of Houston because she had bought her parents tickets to see the Tran Siberian Orchestra, but they too got stuck in the jam and missed the show.  Thank you Sonya.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r147667974-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147667974</t>
+  </si>
+  <si>
+    <t>12/18/2012</t>
+  </si>
+  <si>
+    <t>My review</t>
+  </si>
+  <si>
+    <t>This is a very nice place to stay, very clean rooms very comfortable with no bad smells.  The only bad thing is the location, which is in a run down area of town that is trying to evolve into a nice area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r147403808-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147403808</t>
+  </si>
+  <si>
+    <t>12/13/2012</t>
+  </si>
+  <si>
+    <t>Great business hotel in NE Houston.</t>
+  </si>
+  <si>
+    <t>Excellent and caring front desk staff and management. Very clean and comfortable hotel. The breakfast and coffee are better than a typical "continental" style at many moderately-priced chain hotels. I've stayed before, and will continue to patronize this location.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r147366930-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
     <t>147366930</t>
   </si>
   <si>
-    <t>12/13/2012</t>
-  </si>
-  <si>
     <t>This is a very clean Hotel and the service was wonderful! Breakfast was very good. The staff was very nice and helpful. Location very good close to alot of places. I plan to stay here any time I'm in Houston. I won't go any where else but this Hotel.</t>
   </si>
   <si>
@@ -1321,6 +2056,42 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r142526430-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142526430</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>BEWARE!</t>
+  </si>
+  <si>
+    <t>Although the rooms are nice and breakfast is ok....just a warning that this hotel isn't in the best of neighborhoods. Our vehicle was broken into overnight while they had a "security" guard on duty. When reported, the front desk clerk seemed uninterested.  We were informed by the responding officer that the neighborhood down the road from the hotel is known as a druggie hangout and the area is not the safest to stay in as it is known for criminal activity . So if you can, stay in the city rather than the outskirts.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r142147263-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142147263</t>
+  </si>
+  <si>
+    <t>10/06/2012</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>My stay at this location was good. I have stayed here several different times and have had not problems to speak of. Rooms are plenty big, beds are comfortable, and bathrooms are nice. Associates at the front desk are always more than helpful...very friendly. No complaints from me.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r135205423-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -1375,6 +2146,36 @@
     <t>Wonderful stay. Huge rooms/suite. I requested a handicap shower and we were provided with a beautiful suite with plenty of space to move the wheelchair around. Great service. Needed extra pillows and towels for my disabled mother and I was provided them without hassle. I would difinitely stay again if I ever travel to that area. The staff was very helpful and friendly. I paid around $140 + tax for the room/suite and it was well work the money to accomodate our special needs.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r132623519-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132623519</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>Good clean hotel</t>
+  </si>
+  <si>
+    <t>Very clean rooms, pleasant employees, easy access to Interstate 10, nice breakfast offerings, cookies available at the desk, hard beds, dissappointed that animals are allowed in the rooms.  Heard barking when a dog was left alone in a room during the day and have allergies to pet hair</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r132369088-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132369088</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>Clean, clean, clean!</t>
+  </si>
+  <si>
+    <t>This three-year-old LaQuinta is very conveniently located near the highway and exceptionally clean, inside and out.  The decor is attractive and fresh.  The rooms had the usual amenities, and the king size bed was comfortable.We ate at a nearby Golden Corral that had the largest international selection of food imaginable.  It was very busy, but we did not wait for a table.  The food was good.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r130268513-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -1432,6 +2233,42 @@
     <t>The hotel interior is nice and clean.  The staff were friendly.  The complimentary breakfast was decent with typical waffles, bagels, bread, biscuits and gravy, eggs and bacon/sausages.  One of the mornings while we were having breakfast, we saw one of the Spanish speaking staff (in hotel uniforms) brought her two small kids to eat there as well.  It is a bit unprofessional for my standpoint.  The area where the hotel is located is mixed.  It is not in a bad area, but not a nice area either.  I felt reasonably safe, but I'd advise caution.  We stayed here for a two-day college visit, and would consider stay here again in the future.  However, this would not be a place I'd choose to stay for vacation though.  By the way, the hotel is only about 20-30 minute drive to downtown provided smooth traffic.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r122323927-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>122323927</t>
+  </si>
+  <si>
+    <t>12/31/2011</t>
+  </si>
+  <si>
+    <t>Must stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed on first floor. Service excellent. Nicely decorated for Xmas. Looks brand new everywhere.  Room very clean and modern. Excellent value for $55. Fabulous breakfast. Complete with Texas shaped waffles!  Kids loved it! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r122298333-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>122298333</t>
+  </si>
+  <si>
+    <t>12/30/2011</t>
+  </si>
+  <si>
+    <t>Good stay, clean, but not so good neighborhood</t>
+  </si>
+  <si>
+    <t>The La Quinta in Houston, Texas on Normandy, St is a very nice LQ Inns and Suites, however, the neighborhood is not so nice.Sirens all night, lots of shady/shabby looking houses, building, people in the area. It is on I-10 on the east side of Houston...not the greatest part of town. However, it was very close where I needed to go and had good ratings as a nice, clean property...which it is.The check in was quick, friendly. The room was clean, smelled good and the beds were warm, soft and I slept ok, considering the sirens and such.The property does have a security fence around it, however it is not gated. They do employee a security guard and that does help.The breakfast was ok, typical LQ with mega starch/carbs combo. I was in a hurry, so I did eat there. Park your vehicle in front in the lighted area. Don't venture off the property after dark.All went well during the stay, I would stay again if needed on the east side of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>The La Quinta in Houston, Texas on Normandy, St is a very nice LQ Inns and Suites, however, the neighborhood is not so nice.Sirens all night, lots of shady/shabby looking houses, building, people in the area. It is on I-10 on the east side of Houston...not the greatest part of town. However, it was very close where I needed to go and had good ratings as a nice, clean property...which it is.The check in was quick, friendly. The room was clean, smelled good and the beds were warm, soft and I slept ok, considering the sirens and such.The property does have a security fence around it, however it is not gated. They do employee a security guard and that does help.The breakfast was ok, typical LQ with mega starch/carbs combo. I was in a hurry, so I did eat there. Park your vehicle in front in the lighted area. Don't venture off the property after dark.All went well during the stay, I would stay again if needed on the east side of Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r119234768-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
   </si>
   <si>
@@ -1490,6 +2327,42 @@
   </si>
   <si>
     <t>Should you ever need to stay on the east side of Houston just off I-10 and 15 minutes from downtown (depending on the time of day), this is currently the best choice. La Quinta Normandy is very new. As a result, so are all the fixtures, carpet, TVs, luxurious King beds, bathrooms and so on. For a budget hotel, this place is positively luxurious.The pool was clean, the breakfast decent for being included (eggs, bacon or sausage, along with fruit, cereal, bread, bagels etc) and the staff was friendly and helpful. I cannot think of anything that wasn't right with this place, right down to the microwave and bar fridge in every room. A great bargain!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r103302748-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>103302748</t>
+  </si>
+  <si>
+    <t>04/08/2011</t>
+  </si>
+  <si>
+    <t>Great Stay!!</t>
+  </si>
+  <si>
+    <t>Everything was clean &amp; the staff was very helpfull &amp; friendly. Free breakfast was good and always plenty of food. Would highly recommend staying there.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r92783236-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>92783236</t>
+  </si>
+  <si>
+    <t>01/13/2011</t>
+  </si>
+  <si>
+    <t>The stay was pleasant and the staff very helpful</t>
+  </si>
+  <si>
+    <t>I would like to thank Shana and angela. They where very helpful and friendly. That helps make for a pleasant hotel experience. Thanks</t>
+  </si>
+  <si>
+    <t>December 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1218737-r50654248-La_Quinta_Inn_Suites_Houston_East_at_Normandy-Houston_Texas.html</t>
@@ -2093,20 +2966,14 @@
         <v>5</v>
       </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -2122,43 +2989,43 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
       <c r="P3" t="n">
         <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -2171,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -2193,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2202,53 +3069,53 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
         <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -2264,7 +3131,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2273,22 +3140,22 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
         <v>53</v>
@@ -2297,10 +3164,10 @@
         <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -2312,10 +3179,14 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5" t="s">
+        <v>62</v>
+      </c>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -2331,7 +3202,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2340,10 +3211,10 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
         <v>77</v>
@@ -2352,41 +3223,41 @@
         <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R6" t="n">
         <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -2402,53 +3273,53 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
         <v>83</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="J7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="n">
         <v>4</v>
       </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2463,56 +3334,62 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>87</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>88</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>89</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>92</v>
-      </c>
       <c r="O8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
       <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>92</v>
+      </c>
+      <c r="X8" t="s">
         <v>93</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>94</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -2528,52 +3405,62 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>96</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>97</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>98</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>99</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
         <v>100</v>
       </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="X9" t="s">
         <v>101</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Y9" t="s">
         <v>102</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
-        <v>103</v>
-      </c>
-      <c r="X9" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -2589,32 +3476,34 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
         <v>106</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>107</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>108</v>
       </c>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s">
-        <v>109</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>110</v>
-      </c>
       <c r="O10" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2635,14 +3524,10 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>111</v>
-      </c>
-      <c r="X10" t="s">
-        <v>112</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -2658,41 +3543,47 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>114</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>115</v>
-      </c>
-      <c r="J11" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" t="s">
-        <v>118</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>119</v>
-      </c>
       <c r="O11" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -2701,13 +3592,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="X11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
@@ -2723,7 +3614,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2732,50 +3623,44 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
-      </c>
-      <c r="K12" t="s">
-        <v>127</v>
-      </c>
-      <c r="L12" t="s">
-        <v>128</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
-      <c r="Y12" t="s">
-        <v>128</v>
-      </c>
+      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2790,58 +3675,52 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>128</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" t="s">
         <v>130</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="Y13" t="s">
         <v>131</v>
-      </c>
-      <c r="J13" t="s">
-        <v>132</v>
-      </c>
-      <c r="K13" t="s">
-        <v>133</v>
-      </c>
-      <c r="L13" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>129</v>
-      </c>
-      <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
-      <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="14">
@@ -2857,37 +3736,35 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
         <v>135</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>136</v>
       </c>
-      <c r="J14" t="s">
+      <c r="O14" t="s">
         <v>137</v>
       </c>
-      <c r="K14" t="s">
-        <v>138</v>
-      </c>
-      <c r="L14" t="s">
-        <v>139</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>140</v>
-      </c>
-      <c r="O14" t="s">
-        <v>53</v>
-      </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
         <v>5</v>
@@ -2900,19 +3777,19 @@
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="X14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -2928,47 +3805,41 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
         <v>144</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>145</v>
-      </c>
-      <c r="J15" t="s">
-        <v>146</v>
-      </c>
-      <c r="K15" t="s">
-        <v>147</v>
-      </c>
-      <c r="L15" t="s">
-        <v>148</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>102</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>2</v>
@@ -2977,13 +3848,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>147</v>
+      </c>
+      <c r="X15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y15" t="s">
         <v>149</v>
-      </c>
-      <c r="X15" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -2999,58 +3870,52 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
         <v>152</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>153</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>154</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
         <v>155</v>
       </c>
-      <c r="L16" t="s">
+      <c r="O16" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
         <v>156</v>
       </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="X16" t="s">
         <v>157</v>
       </c>
-      <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
-      <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
@@ -3066,7 +3931,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3075,25 +3940,23 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
-      </c>
-      <c r="K17" t="s">
         <v>161</v>
       </c>
+      <c r="K17" t="s"/>
       <c r="L17" t="s">
+        <v>135</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>162</v>
       </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>163</v>
-      </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3115,13 +3978,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
+        <v>163</v>
+      </c>
+      <c r="X17" t="s">
         <v>164</v>
       </c>
-      <c r="X17" t="s">
-        <v>165</v>
-      </c>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
@@ -3137,40 +4000,40 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
         <v>167</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>168</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>169</v>
       </c>
-      <c r="K18" t="s">
-        <v>170</v>
-      </c>
-      <c r="L18" t="s">
-        <v>171</v>
-      </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
         <v>4</v>
@@ -3185,14 +4048,10 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>164</v>
-      </c>
-      <c r="X18" t="s">
-        <v>165</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
@@ -3208,60 +4067,58 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
         <v>173</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>174</v>
       </c>
-      <c r="J19" t="s">
-        <v>175</v>
-      </c>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s">
-        <v>109</v>
-      </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O19" t="s">
-        <v>102</v>
-      </c>
-      <c r="P19" t="n">
+        <v>128</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
         <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>3</v>
       </c>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
+        <v>175</v>
+      </c>
+      <c r="X19" t="s">
         <v>176</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>177</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20">
@@ -3304,31 +4161,29 @@
         <v>183</v>
       </c>
       <c r="O20" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>185</v>
+      </c>
+      <c r="X20" t="s">
+        <v>186</v>
+      </c>
       <c r="Y20" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
@@ -3344,7 +4199,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3353,41 +4208,47 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>61</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>190</v>
-      </c>
-      <c r="X21" t="s">
-        <v>191</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
         <v>192</v>
       </c>
@@ -3405,60 +4266,56 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>193</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
-        <v>194</v>
-      </c>
-      <c r="J22" t="s">
-        <v>195</v>
-      </c>
-      <c r="K22" t="s">
-        <v>196</v>
-      </c>
-      <c r="L22" t="s">
-        <v>197</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>183</v>
-      </c>
       <c r="O22" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>190</v>
-      </c>
-      <c r="X22" t="s">
-        <v>191</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
         <v>198</v>
       </c>
@@ -3500,22 +4357,22 @@
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
@@ -3543,58 +4400,60 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
         <v>205</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>206</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s"/>
+      <c r="L24" t="s">
+        <v>135</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
         <v>207</v>
       </c>
-      <c r="K24" t="s">
-        <v>208</v>
-      </c>
-      <c r="L24" t="s">
-        <v>209</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>210</v>
-      </c>
       <c r="O24" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
         <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>208</v>
+      </c>
+      <c r="X24" t="s">
+        <v>209</v>
+      </c>
       <c r="Y24" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25">
@@ -3610,44 +4469,62 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
         <v>211</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>212</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>213</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>214</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
         <v>215</v>
       </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>216</v>
+      </c>
+      <c r="X25" t="s">
+        <v>217</v>
+      </c>
       <c r="Y25" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
@@ -3663,7 +4540,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3672,49 +4549,53 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J26" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
         <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>224</v>
+      </c>
+      <c r="X26" t="s">
+        <v>225</v>
+      </c>
       <c r="Y26" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27">
@@ -3730,7 +4611,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3739,41 +4620,41 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="J27" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K27" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="O27" t="s">
-        <v>228</v>
+        <v>60</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3781,7 +4662,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28">
@@ -3797,7 +4678,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3806,29 +4687,35 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="J28" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K28" t="s">
+        <v>236</v>
+      </c>
+      <c r="L28" t="s">
+        <v>237</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
         <v>232</v>
       </c>
-      <c r="L28" t="s">
-        <v>233</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>227</v>
-      </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
       <c r="S28" t="n">
         <v>5</v>
       </c>
@@ -3842,7 +4729,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
@@ -3858,7 +4745,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3867,49 +4754,53 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J29" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K29" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O29" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
         <v>4</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>243</v>
+      </c>
+      <c r="X29" t="s">
+        <v>244</v>
+      </c>
       <c r="Y29" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30">
@@ -3925,7 +4816,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3934,39 +4825,53 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="J30" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K30" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="O30" t="s">
         <v>53</v>
       </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>252</v>
+      </c>
+      <c r="X30" t="s">
+        <v>253</v>
+      </c>
       <c r="Y30" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31">
@@ -3982,7 +4887,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3991,16 +4896,16 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="J31" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="K31" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
@@ -4018,7 +4923,7 @@
         <v>5</v>
       </c>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4030,10 +4935,14 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>252</v>
+      </c>
+      <c r="X31" t="s">
+        <v>253</v>
+      </c>
       <c r="Y31" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32">
@@ -4049,7 +4958,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4058,49 +4967,53 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="J32" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="K32" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
       </c>
       <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
         <v>3</v>
       </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>266</v>
+      </c>
+      <c r="X32" t="s">
+        <v>267</v>
+      </c>
       <c r="Y32" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33">
@@ -4116,7 +5029,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4125,41 +5038,35 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="J33" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -4167,7 +5074,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34">
@@ -4183,7 +5090,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4192,41 +5099,41 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="J34" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="K34" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -4234,7 +5141,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35">
@@ -4250,7 +5157,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4259,31 +5166,35 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="J35" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="K35" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
       <c r="Q35" t="n">
         <v>4</v>
       </c>
-      <c r="R35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
       <c r="S35" t="n">
         <v>4</v>
       </c>
@@ -4297,7 +5208,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36">
@@ -4313,7 +5224,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4322,49 +5233,43 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="J36" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="K36" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="O36" t="s">
-        <v>120</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>293</v>
+      </c>
+      <c r="X36" t="s">
+        <v>294</v>
+      </c>
       <c r="Y36" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37">
@@ -4380,7 +5285,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4389,39 +5294,53 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="K37" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="L37" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
         <v>286</v>
       </c>
       <c r="O37" t="s">
-        <v>102</v>
-      </c>
-      <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+        <v>128</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>293</v>
+      </c>
+      <c r="X37" t="s">
+        <v>294</v>
+      </c>
       <c r="Y37" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38">
@@ -4437,7 +5356,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4446,28 +5365,28 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="J38" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="K38" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="O38" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
         <v>5</v>
@@ -4488,7 +5407,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39">
@@ -4504,7 +5423,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4513,41 +5432,35 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="J39" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="K39" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="L39" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="O39" t="s">
-        <v>102</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4555,7 +5468,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40">
@@ -4571,7 +5484,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4580,32 +5493,38 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="J40" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="K40" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="O40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P40" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
       <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="s"/>
-      <c r="S40" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>4</v>
@@ -4616,7 +5535,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41">
@@ -4632,7 +5551,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4641,37 +5560,37 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="J41" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="K41" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="O41" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R41" t="n">
         <v>5</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
@@ -4683,7 +5602,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="42">
@@ -4699,7 +5618,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4708,49 +5627,35 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="J42" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="K42" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
-      <c r="N42" t="s">
-        <v>316</v>
-      </c>
-      <c r="O42" t="s">
-        <v>102</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43">
@@ -4766,7 +5671,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4775,38 +5680,32 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="J43" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="K43" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="L43" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="O43" t="s">
-        <v>102</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
         <v>5</v>
       </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>5</v>
@@ -4817,7 +5716,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44">
@@ -4833,7 +5732,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4842,37 +5741,35 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="J44" t="s">
+        <v>338</v>
+      </c>
+      <c r="K44" t="s">
+        <v>339</v>
+      </c>
+      <c r="L44" t="s">
+        <v>340</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
         <v>325</v>
       </c>
-      <c r="K44" t="s">
-        <v>326</v>
-      </c>
-      <c r="L44" t="s">
-        <v>327</v>
-      </c>
-      <c r="M44" t="n">
-        <v>4</v>
-      </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
+      <c r="O44" t="s">
+        <v>137</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4880,7 +5777,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45">
@@ -4896,7 +5793,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4905,39 +5802,49 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="J45" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="K45" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="L45" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46">
@@ -4953,7 +5860,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4962,41 +5869,41 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="J46" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="K46" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="L46" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="O46" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5004,7 +5911,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47">
@@ -5020,7 +5927,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5029,31 +5936,29 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="J47" t="s">
-        <v>342</v>
-      </c>
-      <c r="K47" t="s"/>
-      <c r="L47" t="s"/>
+        <v>355</v>
+      </c>
+      <c r="K47" t="s">
+        <v>356</v>
+      </c>
+      <c r="L47" t="s">
+        <v>357</v>
+      </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="O47" t="s">
-        <v>120</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
       <c r="S47" t="n">
         <v>5</v>
       </c>
@@ -5066,7 +5971,9 @@
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
+      <c r="Y47" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5081,7 +5988,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5090,44 +5997,46 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="J48" t="s">
-        <v>346</v>
-      </c>
-      <c r="K48" t="s"/>
-      <c r="L48" t="s"/>
+        <v>360</v>
+      </c>
+      <c r="K48" t="s">
+        <v>361</v>
+      </c>
+      <c r="L48" t="s">
+        <v>362</v>
+      </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
-      <c r="Y48" t="s"/>
+      <c r="Y48" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5142,7 +6051,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5151,41 +6060,41 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="J49" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="K49" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="L49" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="P49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S49" t="n">
         <v>3</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -5193,7 +6102,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50">
@@ -5209,7 +6118,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5218,37 +6127,37 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="J50" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="K50" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="L50" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="O50" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="n">
         <v>5</v>
       </c>
       <c r="R50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
@@ -5260,7 +6169,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51">
@@ -5276,7 +6185,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5285,49 +6194,39 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="J51" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="K51" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="L51" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="O51" t="s">
-        <v>102</v>
-      </c>
-      <c r="P51" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3</v>
-      </c>
-      <c r="R51" t="n">
-        <v>3</v>
-      </c>
-      <c r="S51" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>3</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="52">
@@ -5343,7 +6242,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5352,25 +6251,25 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="J52" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="K52" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="O52" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5394,7 +6293,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53">
@@ -5410,7 +6309,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5419,37 +6318,41 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="J53" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="K53" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="L53" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>387</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R53" t="n">
         <v>4</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5457,7 +6360,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54">
@@ -5473,7 +6376,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5482,25 +6385,25 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="J54" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="K54" t="s">
-        <v>232</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5524,7 +6427,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
     </row>
     <row r="55">
@@ -5540,7 +6443,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5549,39 +6452,49 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="J55" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="K55" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="L55" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="O55" t="s">
-        <v>102</v>
-      </c>
-      <c r="P55" t="s"/>
-      <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
-      <c r="S55" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
       <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
     </row>
     <row r="56">
@@ -5597,7 +6510,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5606,25 +6519,25 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="J56" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="K56" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="L56" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="O56" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5633,7 +6546,7 @@
         <v>5</v>
       </c>
       <c r="R56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -5648,7 +6561,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57">
@@ -5664,7 +6577,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5673,44 +6586,50 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="J57" t="s">
-        <v>395</v>
-      </c>
-      <c r="K57" t="s"/>
-      <c r="L57" t="s"/>
+        <v>412</v>
+      </c>
+      <c r="K57" t="s">
+        <v>413</v>
+      </c>
+      <c r="L57" t="s">
+        <v>414</v>
+      </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
+      <c r="Y57" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5725,7 +6644,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5734,35 +6653,31 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="J58" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="K58" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="L58" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="O58" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
       <c r="S58" t="n">
         <v>4</v>
       </c>
@@ -5776,7 +6691,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59">
@@ -5792,7 +6707,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5801,28 +6716,28 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="J59" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="K59" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="L59" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="P59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q59" t="n">
         <v>5</v>
@@ -5843,7 +6758,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60">
@@ -5859,7 +6774,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5868,39 +6783,37 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="J60" t="s">
-        <v>409</v>
-      </c>
-      <c r="K60" t="s"/>
+        <v>429</v>
+      </c>
+      <c r="K60" t="s">
+        <v>430</v>
+      </c>
       <c r="L60" t="s">
-        <v>109</v>
+        <v>431</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="O60" t="s">
-        <v>120</v>
-      </c>
-      <c r="P60" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P60" t="s"/>
       <c r="Q60" t="n">
         <v>4</v>
       </c>
-      <c r="R60" t="n">
-        <v>4</v>
-      </c>
+      <c r="R60" t="s"/>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -5908,7 +6821,7 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>113</v>
+        <v>433</v>
       </c>
     </row>
     <row r="61">
@@ -5924,7 +6837,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5933,32 +6846,38 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="J61" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="K61" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="L61" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="O61" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="P61" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q61" t="s"/>
-      <c r="R61" t="s"/>
-      <c r="S61" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
         <v>5</v>
@@ -5969,7 +6888,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
     </row>
     <row r="62">
@@ -5985,7 +6904,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5994,49 +6913,39 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="J62" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="K62" t="s">
-        <v>77</v>
+        <v>442</v>
       </c>
       <c r="L62" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
-      <c r="R62" t="n">
-        <v>5</v>
-      </c>
-      <c r="S62" t="n">
-        <v>5</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="n">
-        <v>5</v>
-      </c>
+      <c r="U62" t="s"/>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63">
@@ -6052,7 +6961,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6061,41 +6970,37 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="J63" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="K63" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="L63" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="O63" t="s">
         <v>53</v>
       </c>
-      <c r="P63" t="n">
-        <v>4</v>
-      </c>
+      <c r="P63" t="s"/>
       <c r="Q63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
-        <v>4</v>
-      </c>
-      <c r="S63" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -6103,7 +7008,7 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64">
@@ -6119,7 +7024,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6128,41 +7033,35 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="J64" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="K64" t="s">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="L64" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="O64" t="s">
-        <v>120</v>
-      </c>
-      <c r="P64" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>5</v>
-      </c>
-      <c r="R64" t="n">
-        <v>5</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
       <c r="S64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -6170,7 +7069,7 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65">
@@ -6186,7 +7085,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6195,25 +7094,25 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="J65" t="s">
-        <v>435</v>
+        <v>459</v>
       </c>
       <c r="K65" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="L65" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
       <c r="M65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -6222,14 +7121,14 @@
         <v>5</v>
       </c>
       <c r="R65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S65" t="n">
         <v>5</v>
       </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V65" t="n">
         <v>0</v>
@@ -6237,7 +7136,7 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>437</v>
+        <v>461</v>
       </c>
     </row>
     <row r="66">
@@ -6253,7 +7152,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6262,34 +7161,34 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>440</v>
+        <v>463</v>
       </c>
       <c r="J66" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="K66" t="s">
-        <v>442</v>
+        <v>465</v>
       </c>
       <c r="L66" t="s">
-        <v>443</v>
+        <v>466</v>
       </c>
       <c r="M66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="O66" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="P66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q66" t="n">
         <v>5</v>
       </c>
       <c r="R66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S66" t="n">
         <v>5</v>
@@ -6304,7 +7203,7 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
     </row>
     <row r="67">
@@ -6320,7 +7219,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>446</v>
+        <v>469</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6329,41 +7228,35 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="J67" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="K67" t="s">
-        <v>449</v>
+        <v>472</v>
       </c>
       <c r="L67" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="M67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="O67" t="s">
         <v>53</v>
       </c>
-      <c r="P67" t="n">
-        <v>5</v>
-      </c>
+      <c r="P67" t="s"/>
       <c r="Q67" t="n">
-        <v>5</v>
-      </c>
-      <c r="R67" t="n">
-        <v>4</v>
-      </c>
-      <c r="S67" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -6371,7 +7264,7 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>450</v>
+        <v>473</v>
       </c>
     </row>
     <row r="68">
@@ -6387,7 +7280,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6396,37 +7289,41 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="J68" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="K68" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="L68" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
-      </c>
-      <c r="N68" t="s"/>
-      <c r="O68" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>474</v>
+      </c>
+      <c r="O68" t="s">
+        <v>128</v>
+      </c>
       <c r="P68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -6434,7 +7331,7 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69">
@@ -6450,7 +7347,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6459,41 +7356,41 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="J69" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="K69" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="L69" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="P69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S69" t="n">
         <v>5</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
@@ -6501,7 +7398,7 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70">
@@ -6517,7 +7414,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6526,37 +7423,37 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="J70" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="K70" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="L70" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="M70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="O70" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="P70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
         <v>3</v>
-      </c>
-      <c r="S70" t="n">
-        <v>5</v>
       </c>
       <c r="T70" t="s"/>
       <c r="U70" t="n">
@@ -6568,7 +7465,7 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71">
@@ -6584,7 +7481,7 @@
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -6593,41 +7490,41 @@
         <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="J71" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="K71" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="L71" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="M71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="O71" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="P71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T71" t="s"/>
       <c r="U71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -6635,7 +7532,7 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
     </row>
     <row r="72">
@@ -6651,7 +7548,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="G72" t="s">
         <v>46</v>
@@ -6660,31 +7557,35 @@
         <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="J72" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="K72" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="L72" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="O72" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
       </c>
-      <c r="Q72" t="s"/>
-      <c r="R72" t="s"/>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
       <c r="S72" t="n">
         <v>5</v>
       </c>
@@ -6698,7 +7599,7 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
     </row>
     <row r="73">
@@ -6714,7 +7615,7 @@
         <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="G73" t="s">
         <v>46</v>
@@ -6723,37 +7624,41 @@
         <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="J73" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="K73" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="L73" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="M73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="O73" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="P73" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q73" t="s"/>
-      <c r="R73" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
       <c r="S73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T73" t="s"/>
       <c r="U73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V73" t="n">
         <v>0</v>
@@ -6761,7 +7666,7 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
     </row>
     <row r="74">
@@ -6777,7 +7682,7 @@
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="G74" t="s">
         <v>46</v>
@@ -6786,49 +7691,39 @@
         <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="J74" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="K74" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="L74" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="M74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="O74" t="s">
-        <v>102</v>
-      </c>
-      <c r="P74" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>5</v>
-      </c>
-      <c r="R74" t="n">
-        <v>3</v>
-      </c>
-      <c r="S74" t="n">
-        <v>5</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
       <c r="T74" t="s"/>
-      <c r="U74" t="n">
-        <v>5</v>
-      </c>
+      <c r="U74" t="s"/>
       <c r="V74" t="n">
         <v>0</v>
       </c>
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="75">
@@ -6844,7 +7739,7 @@
         <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -6853,28 +7748,24 @@
         <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="J75" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="K75" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="L75" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
-      <c r="N75" t="s">
-        <v>502</v>
-      </c>
-      <c r="O75" t="s">
-        <v>228</v>
-      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
       <c r="P75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q75" t="n">
         <v>4</v>
@@ -6883,11 +7774,11 @@
         <v>4</v>
       </c>
       <c r="S75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T75" t="s"/>
       <c r="U75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
@@ -6895,7 +7786,3328 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>503</v>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>515</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>516</v>
+      </c>
+      <c r="J76" t="s">
+        <v>517</v>
+      </c>
+      <c r="K76" t="s">
+        <v>518</v>
+      </c>
+      <c r="L76" t="s">
+        <v>519</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>520</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>522</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>523</v>
+      </c>
+      <c r="J77" t="s">
+        <v>524</v>
+      </c>
+      <c r="K77" t="s">
+        <v>525</v>
+      </c>
+      <c r="L77" t="s">
+        <v>526</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>520</v>
+      </c>
+      <c r="O77" t="s">
+        <v>184</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>527</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>528</v>
+      </c>
+      <c r="J78" t="s">
+        <v>529</v>
+      </c>
+      <c r="K78" t="s">
+        <v>530</v>
+      </c>
+      <c r="L78" t="s">
+        <v>531</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>532</v>
+      </c>
+      <c r="O78" t="s">
+        <v>128</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>533</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>534</v>
+      </c>
+      <c r="J79" t="s">
+        <v>535</v>
+      </c>
+      <c r="K79" t="s">
+        <v>536</v>
+      </c>
+      <c r="L79" t="s">
+        <v>537</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>532</v>
+      </c>
+      <c r="O79" t="s">
+        <v>128</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>538</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>539</v>
+      </c>
+      <c r="J80" t="s">
+        <v>540</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>541</v>
+      </c>
+      <c r="O80" t="s">
+        <v>184</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>542</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>543</v>
+      </c>
+      <c r="J81" t="s">
+        <v>544</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>541</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>545</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>546</v>
+      </c>
+      <c r="J82" t="s">
+        <v>547</v>
+      </c>
+      <c r="K82" t="s">
+        <v>548</v>
+      </c>
+      <c r="L82" t="s">
+        <v>549</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>550</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>552</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>553</v>
+      </c>
+      <c r="J83" t="s">
+        <v>554</v>
+      </c>
+      <c r="K83" t="s">
+        <v>555</v>
+      </c>
+      <c r="L83" t="s">
+        <v>556</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>550</v>
+      </c>
+      <c r="O83" t="s">
+        <v>128</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>557</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>558</v>
+      </c>
+      <c r="J84" t="s">
+        <v>559</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s"/>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>550</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>560</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>561</v>
+      </c>
+      <c r="J85" t="s">
+        <v>562</v>
+      </c>
+      <c r="K85" t="s">
+        <v>563</v>
+      </c>
+      <c r="L85" t="s">
+        <v>564</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>550</v>
+      </c>
+      <c r="O85" t="s">
+        <v>128</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>565</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>566</v>
+      </c>
+      <c r="J86" t="s">
+        <v>567</v>
+      </c>
+      <c r="K86" t="s">
+        <v>568</v>
+      </c>
+      <c r="L86" t="s">
+        <v>569</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>570</v>
+      </c>
+      <c r="O86" t="s">
+        <v>128</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>571</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>572</v>
+      </c>
+      <c r="J87" t="s">
+        <v>573</v>
+      </c>
+      <c r="K87" t="s">
+        <v>574</v>
+      </c>
+      <c r="L87" t="s">
+        <v>575</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>576</v>
+      </c>
+      <c r="O87" t="s">
+        <v>128</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>577</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>578</v>
+      </c>
+      <c r="J88" t="s">
+        <v>579</v>
+      </c>
+      <c r="K88" t="s">
+        <v>580</v>
+      </c>
+      <c r="L88" t="s">
+        <v>581</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>582</v>
+      </c>
+      <c r="O88" t="s">
+        <v>184</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>2</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>583</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>584</v>
+      </c>
+      <c r="J89" t="s">
+        <v>585</v>
+      </c>
+      <c r="K89" t="s">
+        <v>586</v>
+      </c>
+      <c r="L89" t="s">
+        <v>587</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>588</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>589</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>590</v>
+      </c>
+      <c r="J90" t="s">
+        <v>591</v>
+      </c>
+      <c r="K90" t="s">
+        <v>592</v>
+      </c>
+      <c r="L90" t="s">
+        <v>593</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>594</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>595</v>
+      </c>
+      <c r="J91" t="s">
+        <v>596</v>
+      </c>
+      <c r="K91" t="s">
+        <v>356</v>
+      </c>
+      <c r="L91" t="s">
+        <v>597</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>588</v>
+      </c>
+      <c r="O91" t="s">
+        <v>60</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>598</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>599</v>
+      </c>
+      <c r="J92" t="s">
+        <v>600</v>
+      </c>
+      <c r="K92" t="s">
+        <v>601</v>
+      </c>
+      <c r="L92" t="s">
+        <v>602</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>603</v>
+      </c>
+      <c r="O92" t="s">
+        <v>128</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>604</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>605</v>
+      </c>
+      <c r="J93" t="s">
+        <v>606</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>603</v>
+      </c>
+      <c r="O93" t="s">
+        <v>60</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>607</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>608</v>
+      </c>
+      <c r="J94" t="s">
+        <v>609</v>
+      </c>
+      <c r="K94" t="s">
+        <v>610</v>
+      </c>
+      <c r="L94" t="s">
+        <v>611</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>612</v>
+      </c>
+      <c r="O94" t="s">
+        <v>60</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>613</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>614</v>
+      </c>
+      <c r="J95" t="s">
+        <v>615</v>
+      </c>
+      <c r="K95" t="s">
+        <v>616</v>
+      </c>
+      <c r="L95" t="s">
+        <v>617</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>618</v>
+      </c>
+      <c r="O95" t="s">
+        <v>184</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>619</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>620</v>
+      </c>
+      <c r="J96" t="s">
+        <v>621</v>
+      </c>
+      <c r="K96" t="s"/>
+      <c r="L96" t="s"/>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>618</v>
+      </c>
+      <c r="O96" t="s">
+        <v>60</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>622</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>623</v>
+      </c>
+      <c r="J97" t="s">
+        <v>624</v>
+      </c>
+      <c r="K97" t="s">
+        <v>625</v>
+      </c>
+      <c r="L97" t="s">
+        <v>626</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>627</v>
+      </c>
+      <c r="O97" t="s">
+        <v>128</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>628</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>629</v>
+      </c>
+      <c r="J98" t="s">
+        <v>630</v>
+      </c>
+      <c r="K98" t="s">
+        <v>631</v>
+      </c>
+      <c r="L98" t="s">
+        <v>632</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>633</v>
+      </c>
+      <c r="O98" t="s">
+        <v>128</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>634</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>635</v>
+      </c>
+      <c r="J99" t="s">
+        <v>636</v>
+      </c>
+      <c r="K99" t="s">
+        <v>637</v>
+      </c>
+      <c r="L99" t="s">
+        <v>638</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>627</v>
+      </c>
+      <c r="O99" t="s">
+        <v>137</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>1</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>639</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>640</v>
+      </c>
+      <c r="J100" t="s">
+        <v>636</v>
+      </c>
+      <c r="K100" t="s">
+        <v>641</v>
+      </c>
+      <c r="L100" t="s">
+        <v>642</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>627</v>
+      </c>
+      <c r="O100" t="s">
+        <v>60</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>643</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>644</v>
+      </c>
+      <c r="J101" t="s">
+        <v>645</v>
+      </c>
+      <c r="K101" t="s"/>
+      <c r="L101" t="s">
+        <v>135</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>627</v>
+      </c>
+      <c r="O101" t="s">
+        <v>184</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>646</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>647</v>
+      </c>
+      <c r="J102" t="s">
+        <v>648</v>
+      </c>
+      <c r="K102" t="s">
+        <v>649</v>
+      </c>
+      <c r="L102" t="s">
+        <v>650</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>651</v>
+      </c>
+      <c r="O102" t="s">
+        <v>184</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>653</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>654</v>
+      </c>
+      <c r="J103" t="s">
+        <v>655</v>
+      </c>
+      <c r="K103" t="s">
+        <v>656</v>
+      </c>
+      <c r="L103" t="s">
+        <v>657</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>651</v>
+      </c>
+      <c r="O103" t="s">
+        <v>184</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>658</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>659</v>
+      </c>
+      <c r="J104" t="s">
+        <v>660</v>
+      </c>
+      <c r="K104" t="s">
+        <v>661</v>
+      </c>
+      <c r="L104" t="s">
+        <v>662</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>651</v>
+      </c>
+      <c r="O104" t="s">
+        <v>128</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>663</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>664</v>
+      </c>
+      <c r="J105" t="s">
+        <v>660</v>
+      </c>
+      <c r="K105" t="s">
+        <v>112</v>
+      </c>
+      <c r="L105" t="s">
+        <v>665</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>651</v>
+      </c>
+      <c r="O105" t="s">
+        <v>60</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>666</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>667</v>
+      </c>
+      <c r="J106" t="s">
+        <v>668</v>
+      </c>
+      <c r="K106" t="s">
+        <v>669</v>
+      </c>
+      <c r="L106" t="s">
+        <v>670</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>671</v>
+      </c>
+      <c r="O106" t="s">
+        <v>60</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>672</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>673</v>
+      </c>
+      <c r="J107" t="s">
+        <v>674</v>
+      </c>
+      <c r="K107" t="s">
+        <v>675</v>
+      </c>
+      <c r="L107" t="s">
+        <v>676</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>677</v>
+      </c>
+      <c r="O107" t="s">
+        <v>184</v>
+      </c>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>678</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>679</v>
+      </c>
+      <c r="J108" t="s">
+        <v>680</v>
+      </c>
+      <c r="K108" t="s">
+        <v>681</v>
+      </c>
+      <c r="L108" t="s">
+        <v>682</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2</v>
+      </c>
+      <c r="N108" t="s">
+        <v>683</v>
+      </c>
+      <c r="O108" t="s">
+        <v>60</v>
+      </c>
+      <c r="P108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>2</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>684</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>685</v>
+      </c>
+      <c r="J109" t="s">
+        <v>686</v>
+      </c>
+      <c r="K109" t="s">
+        <v>687</v>
+      </c>
+      <c r="L109" t="s">
+        <v>688</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>689</v>
+      </c>
+      <c r="O109" t="s">
+        <v>128</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>690</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>691</v>
+      </c>
+      <c r="J110" t="s">
+        <v>692</v>
+      </c>
+      <c r="K110" t="s">
+        <v>693</v>
+      </c>
+      <c r="L110" t="s">
+        <v>694</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>695</v>
+      </c>
+      <c r="O110" t="s">
+        <v>60</v>
+      </c>
+      <c r="P110" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>696</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>697</v>
+      </c>
+      <c r="J111" t="s">
+        <v>698</v>
+      </c>
+      <c r="K111" t="s">
+        <v>699</v>
+      </c>
+      <c r="L111" t="s">
+        <v>700</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>701</v>
+      </c>
+      <c r="O111" t="s">
+        <v>128</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>703</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>704</v>
+      </c>
+      <c r="J112" t="s">
+        <v>705</v>
+      </c>
+      <c r="K112" t="s">
+        <v>706</v>
+      </c>
+      <c r="L112" t="s">
+        <v>707</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>701</v>
+      </c>
+      <c r="O112" t="s">
+        <v>60</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>5</v>
+      </c>
+      <c r="R112" t="n">
+        <v>4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>708</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>709</v>
+      </c>
+      <c r="J113" t="s">
+        <v>710</v>
+      </c>
+      <c r="K113" t="s">
+        <v>711</v>
+      </c>
+      <c r="L113" t="s">
+        <v>712</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4</v>
+      </c>
+      <c r="N113" t="s">
+        <v>701</v>
+      </c>
+      <c r="O113" t="s">
+        <v>53</v>
+      </c>
+      <c r="P113" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>3</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>713</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>714</v>
+      </c>
+      <c r="J114" t="s">
+        <v>715</v>
+      </c>
+      <c r="K114" t="s">
+        <v>716</v>
+      </c>
+      <c r="L114" t="s">
+        <v>717</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>701</v>
+      </c>
+      <c r="O114" t="s">
+        <v>60</v>
+      </c>
+      <c r="P114" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>5</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>718</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>719</v>
+      </c>
+      <c r="J115" t="s">
+        <v>720</v>
+      </c>
+      <c r="K115" t="s">
+        <v>721</v>
+      </c>
+      <c r="L115" t="s">
+        <v>722</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s"/>
+      <c r="O115" t="s"/>
+      <c r="P115" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>5</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>723</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>724</v>
+      </c>
+      <c r="J116" t="s">
+        <v>725</v>
+      </c>
+      <c r="K116" t="s">
+        <v>726</v>
+      </c>
+      <c r="L116" t="s">
+        <v>727</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5</v>
+      </c>
+      <c r="N116" t="s">
+        <v>728</v>
+      </c>
+      <c r="O116" t="s">
+        <v>60</v>
+      </c>
+      <c r="P116" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>5</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>730</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>731</v>
+      </c>
+      <c r="J117" t="s">
+        <v>732</v>
+      </c>
+      <c r="K117" t="s">
+        <v>733</v>
+      </c>
+      <c r="L117" t="s">
+        <v>734</v>
+      </c>
+      <c r="M117" t="n">
+        <v>4</v>
+      </c>
+      <c r="N117" t="s">
+        <v>735</v>
+      </c>
+      <c r="O117" t="s">
+        <v>128</v>
+      </c>
+      <c r="P117" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>5</v>
+      </c>
+      <c r="R117" t="n">
+        <v>3</v>
+      </c>
+      <c r="S117" t="n">
+        <v>5</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>5</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>737</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>738</v>
+      </c>
+      <c r="J118" t="s">
+        <v>739</v>
+      </c>
+      <c r="K118" t="s">
+        <v>740</v>
+      </c>
+      <c r="L118" t="s">
+        <v>741</v>
+      </c>
+      <c r="M118" t="n">
+        <v>5</v>
+      </c>
+      <c r="N118" t="s"/>
+      <c r="O118" t="s"/>
+      <c r="P118" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>5</v>
+      </c>
+      <c r="R118" t="n">
+        <v>5</v>
+      </c>
+      <c r="S118" t="n">
+        <v>5</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>5</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>742</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>743</v>
+      </c>
+      <c r="J119" t="s">
+        <v>744</v>
+      </c>
+      <c r="K119" t="s">
+        <v>745</v>
+      </c>
+      <c r="L119" t="s">
+        <v>746</v>
+      </c>
+      <c r="M119" t="n">
+        <v>4</v>
+      </c>
+      <c r="N119" t="s">
+        <v>747</v>
+      </c>
+      <c r="O119" t="s">
+        <v>128</v>
+      </c>
+      <c r="P119" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>4</v>
+      </c>
+      <c r="R119" t="n">
+        <v>3</v>
+      </c>
+      <c r="S119" t="n">
+        <v>4</v>
+      </c>
+      <c r="T119" t="s"/>
+      <c r="U119" t="n">
+        <v>4</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s"/>
+      <c r="X119" t="s"/>
+      <c r="Y119" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" t="s">
+        <v>749</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>750</v>
+      </c>
+      <c r="J120" t="s">
+        <v>751</v>
+      </c>
+      <c r="K120" t="s">
+        <v>752</v>
+      </c>
+      <c r="L120" t="s">
+        <v>753</v>
+      </c>
+      <c r="M120" t="n">
+        <v>4</v>
+      </c>
+      <c r="N120" t="s">
+        <v>754</v>
+      </c>
+      <c r="O120" t="s">
+        <v>128</v>
+      </c>
+      <c r="P120" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>4</v>
+      </c>
+      <c r="R120" t="n">
+        <v>4</v>
+      </c>
+      <c r="S120" t="n">
+        <v>4</v>
+      </c>
+      <c r="T120" t="s"/>
+      <c r="U120" t="n">
+        <v>3</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s"/>
+      <c r="X120" t="s"/>
+      <c r="Y120" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s">
+        <v>756</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" t="s">
+        <v>757</v>
+      </c>
+      <c r="J121" t="s">
+        <v>758</v>
+      </c>
+      <c r="K121" t="s">
+        <v>759</v>
+      </c>
+      <c r="L121" t="s">
+        <v>760</v>
+      </c>
+      <c r="M121" t="n">
+        <v>5</v>
+      </c>
+      <c r="N121" t="s">
+        <v>761</v>
+      </c>
+      <c r="O121" t="s">
+        <v>128</v>
+      </c>
+      <c r="P121" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q121" t="s"/>
+      <c r="R121" t="s"/>
+      <c r="S121" t="n">
+        <v>5</v>
+      </c>
+      <c r="T121" t="s"/>
+      <c r="U121" t="n">
+        <v>5</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="s"/>
+      <c r="X121" t="s"/>
+      <c r="Y121" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B122" t="s"/>
+      <c r="C122" t="s"/>
+      <c r="D122" t="n">
+        <v>121</v>
+      </c>
+      <c r="E122" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" t="s">
+        <v>762</v>
+      </c>
+      <c r="G122" t="s">
+        <v>46</v>
+      </c>
+      <c r="H122" t="s">
+        <v>47</v>
+      </c>
+      <c r="I122" t="s">
+        <v>763</v>
+      </c>
+      <c r="J122" t="s">
+        <v>764</v>
+      </c>
+      <c r="K122" t="s">
+        <v>765</v>
+      </c>
+      <c r="L122" t="s">
+        <v>766</v>
+      </c>
+      <c r="M122" t="n">
+        <v>5</v>
+      </c>
+      <c r="N122" t="s">
+        <v>767</v>
+      </c>
+      <c r="O122" t="s">
+        <v>128</v>
+      </c>
+      <c r="P122" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q122" t="s"/>
+      <c r="R122" t="s"/>
+      <c r="S122" t="n">
+        <v>5</v>
+      </c>
+      <c r="T122" t="s"/>
+      <c r="U122" t="n">
+        <v>5</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W122" t="s"/>
+      <c r="X122" t="s"/>
+      <c r="Y122" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B123" t="s"/>
+      <c r="C123" t="s"/>
+      <c r="D123" t="n">
+        <v>122</v>
+      </c>
+      <c r="E123" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" t="s">
+        <v>769</v>
+      </c>
+      <c r="G123" t="s">
+        <v>46</v>
+      </c>
+      <c r="H123" t="s">
+        <v>47</v>
+      </c>
+      <c r="I123" t="s">
+        <v>770</v>
+      </c>
+      <c r="J123" t="s">
+        <v>771</v>
+      </c>
+      <c r="K123" t="s">
+        <v>772</v>
+      </c>
+      <c r="L123" t="s">
+        <v>773</v>
+      </c>
+      <c r="M123" t="n">
+        <v>5</v>
+      </c>
+      <c r="N123" t="s">
+        <v>774</v>
+      </c>
+      <c r="O123" t="s">
+        <v>137</v>
+      </c>
+      <c r="P123" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>5</v>
+      </c>
+      <c r="R123" t="n">
+        <v>5</v>
+      </c>
+      <c r="S123" t="n">
+        <v>5</v>
+      </c>
+      <c r="T123" t="s"/>
+      <c r="U123" t="n">
+        <v>5</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W123" t="s"/>
+      <c r="X123" t="s"/>
+      <c r="Y123" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B124" t="s"/>
+      <c r="C124" t="s"/>
+      <c r="D124" t="n">
+        <v>123</v>
+      </c>
+      <c r="E124" t="s">
+        <v>44</v>
+      </c>
+      <c r="F124" t="s">
+        <v>775</v>
+      </c>
+      <c r="G124" t="s">
+        <v>46</v>
+      </c>
+      <c r="H124" t="s">
+        <v>47</v>
+      </c>
+      <c r="I124" t="s">
+        <v>776</v>
+      </c>
+      <c r="J124" t="s">
+        <v>777</v>
+      </c>
+      <c r="K124" t="s">
+        <v>778</v>
+      </c>
+      <c r="L124" t="s">
+        <v>779</v>
+      </c>
+      <c r="M124" t="n">
+        <v>5</v>
+      </c>
+      <c r="N124" t="s">
+        <v>780</v>
+      </c>
+      <c r="O124" t="s">
+        <v>184</v>
+      </c>
+      <c r="P124" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>5</v>
+      </c>
+      <c r="R124" t="n">
+        <v>5</v>
+      </c>
+      <c r="S124" t="n">
+        <v>5</v>
+      </c>
+      <c r="T124" t="s"/>
+      <c r="U124" t="n">
+        <v>5</v>
+      </c>
+      <c r="V124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W124" t="s"/>
+      <c r="X124" t="s"/>
+      <c r="Y124" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B125" t="s"/>
+      <c r="C125" t="s"/>
+      <c r="D125" t="n">
+        <v>124</v>
+      </c>
+      <c r="E125" t="s">
+        <v>44</v>
+      </c>
+      <c r="F125" t="s">
+        <v>781</v>
+      </c>
+      <c r="G125" t="s">
+        <v>46</v>
+      </c>
+      <c r="H125" t="s">
+        <v>47</v>
+      </c>
+      <c r="I125" t="s">
+        <v>782</v>
+      </c>
+      <c r="J125" t="s">
+        <v>783</v>
+      </c>
+      <c r="K125" t="s">
+        <v>784</v>
+      </c>
+      <c r="L125" t="s">
+        <v>785</v>
+      </c>
+      <c r="M125" t="n">
+        <v>5</v>
+      </c>
+      <c r="N125" t="s">
+        <v>786</v>
+      </c>
+      <c r="O125" t="s">
+        <v>128</v>
+      </c>
+      <c r="P125" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>5</v>
+      </c>
+      <c r="R125" t="n">
+        <v>3</v>
+      </c>
+      <c r="S125" t="n">
+        <v>5</v>
+      </c>
+      <c r="T125" t="s"/>
+      <c r="U125" t="n">
+        <v>5</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0</v>
+      </c>
+      <c r="W125" t="s"/>
+      <c r="X125" t="s"/>
+      <c r="Y125" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>58766</v>
+      </c>
+      <c r="B126" t="s"/>
+      <c r="C126" t="s"/>
+      <c r="D126" t="n">
+        <v>125</v>
+      </c>
+      <c r="E126" t="s">
+        <v>44</v>
+      </c>
+      <c r="F126" t="s">
+        <v>788</v>
+      </c>
+      <c r="G126" t="s">
+        <v>46</v>
+      </c>
+      <c r="H126" t="s">
+        <v>47</v>
+      </c>
+      <c r="I126" t="s">
+        <v>789</v>
+      </c>
+      <c r="J126" t="s">
+        <v>790</v>
+      </c>
+      <c r="K126" t="s">
+        <v>791</v>
+      </c>
+      <c r="L126" t="s">
+        <v>792</v>
+      </c>
+      <c r="M126" t="n">
+        <v>4</v>
+      </c>
+      <c r="N126" t="s">
+        <v>793</v>
+      </c>
+      <c r="O126" t="s">
+        <v>137</v>
+      </c>
+      <c r="P126" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>4</v>
+      </c>
+      <c r="R126" t="n">
+        <v>4</v>
+      </c>
+      <c r="S126" t="n">
+        <v>5</v>
+      </c>
+      <c r="T126" t="s"/>
+      <c r="U126" t="n">
+        <v>5</v>
+      </c>
+      <c r="V126" t="n">
+        <v>0</v>
+      </c>
+      <c r="W126" t="s"/>
+      <c r="X126" t="s"/>
+      <c r="Y126" t="s">
+        <v>794</v>
       </c>
     </row>
   </sheetData>
